--- a/Code/Results/Cases/Case_2_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_38/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.484550121829898</v>
+        <v>2.484550121830011</v>
       </c>
       <c r="C2">
-        <v>0.8739008022229768</v>
+        <v>0.8739008022232326</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.440724190970741</v>
+        <v>1.440724190970755</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7708209621112516</v>
+        <v>0.7708209621112729</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.145049900731578</v>
+        <v>2.145049900731522</v>
       </c>
       <c r="C3">
         <v>0.7517698812576725</v>
@@ -459,13 +459,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.229391595870339</v>
+        <v>1.229391595870354</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.7851009202908443</v>
+        <v>0.7851009202908585</v>
       </c>
       <c r="H3">
         <v>0.467274489075912</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6647980834395639</v>
+        <v>0.6647980834395426</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,10 +488,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.939165215619653</v>
+        <v>1.939165215619539</v>
       </c>
       <c r="C4">
-        <v>0.6781290119824348</v>
+        <v>0.6781290119828043</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -503,16 +503,16 @@
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.7324673947698344</v>
+        <v>0.7324673947698273</v>
       </c>
       <c r="H4">
-        <v>0.4487220985753879</v>
+        <v>0.448722098575395</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.6006057189311349</v>
+        <v>0.600605718931142</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.855794681119534</v>
+        <v>1.855794681119505</v>
       </c>
       <c r="C5">
         <v>0.6483997217501098</v>
@@ -535,16 +535,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.05268905845918</v>
+        <v>1.052689058459151</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.7118569677404025</v>
+        <v>0.7118569677403954</v>
       </c>
       <c r="H5">
-        <v>0.4417198177540271</v>
+        <v>0.4417198177540484</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.841979836021125</v>
+        <v>1.841979836021352</v>
       </c>
       <c r="C6">
-        <v>0.6434785003459069</v>
+        <v>0.6434785003460206</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.044327225377359</v>
+        <v>1.044327225377387</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.7084823218443859</v>
+        <v>0.7084823218443574</v>
       </c>
       <c r="H6">
-        <v>0.440589055749939</v>
+        <v>0.4405890557499248</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.570331634759107</v>
+        <v>0.5703316347590999</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.938038854747248</v>
+        <v>1.938038854747361</v>
       </c>
       <c r="C7">
-        <v>0.6777270121656045</v>
+        <v>0.6777270121653771</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.102616288750298</v>
+        <v>1.10261628875034</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.7321861751745971</v>
+        <v>0.7321861751746042</v>
       </c>
       <c r="H7">
-        <v>0.4486254835693799</v>
+        <v>0.448625483569387</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.366882514319173</v>
+        <v>2.366882514319343</v>
       </c>
       <c r="C8">
-        <v>0.8314726315220469</v>
+        <v>0.8314726315219332</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.366997125510096</v>
+        <v>1.366997125510167</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -658,7 +658,7 @@
         <v>0.8444287697977586</v>
       </c>
       <c r="H8">
-        <v>0.4891559551394664</v>
+        <v>0.4891559551394806</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.234293738852102</v>
+        <v>3.234293738851818</v>
       </c>
       <c r="C9">
-        <v>1.14672947938854</v>
+        <v>1.146729479388426</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.00571879303493</v>
+        <v>1.005718793034916</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.897596269159976</v>
+        <v>3.897596269159919</v>
       </c>
       <c r="C10">
-        <v>1.3917764580018</v>
+        <v>1.391776458001686</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.366973076944419</v>
+        <v>2.366973076944475</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
         <v>1.318059399215613</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.214425407291401</v>
+        <v>1.214425407291387</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.207709262848198</v>
+        <v>4.207709262848141</v>
       </c>
       <c r="C11">
-        <v>1.507567881827129</v>
+        <v>1.507567881827526</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.580824874652023</v>
+        <v>2.580824874652066</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.426411947694803</v>
+        <v>1.426411947694817</v>
       </c>
       <c r="H11">
-        <v>0.7345878011267857</v>
+        <v>0.7345878011267999</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.326621302093884</v>
+        <v>4.32662130209377</v>
       </c>
       <c r="C12">
-        <v>1.552180337155903</v>
+        <v>1.552180337155733</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.663897840950227</v>
+        <v>2.663897840950312</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
@@ -810,7 +810,7 @@
         <v>1.469004332379512</v>
       </c>
       <c r="H12">
-        <v>0.7539560749678031</v>
+        <v>0.7539560749678103</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.300940752276063</v>
+        <v>4.300940752276006</v>
       </c>
       <c r="C13">
-        <v>1.542535636371213</v>
+        <v>1.542535636371383</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.645906075851855</v>
+        <v>2.64590607585184</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>1.459757284966599</v>
+        <v>1.459757284966614</v>
       </c>
       <c r="H13">
-        <v>0.74973936372065</v>
+        <v>0.7497393637206571</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.341759554711629</v>
+        <v>1.341759554711615</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.217460827698517</v>
+        <v>4.217460827698574</v>
       </c>
       <c r="C14">
-        <v>1.51122192327631</v>
+        <v>1.511221923276139</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.587614752266447</v>
+        <v>2.587614752266433</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.429883126271932</v>
+        <v>1.429883126271903</v>
       </c>
       <c r="H14">
-        <v>0.7361610329131381</v>
+        <v>0.7361610329131452</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.31537848395287</v>
+        <v>1.315378483952841</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.16652860466354</v>
+        <v>4.166528604663597</v>
       </c>
       <c r="C15">
-        <v>1.492145713023717</v>
+        <v>1.492145713024172</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.55219570288547</v>
+        <v>2.552195702885484</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>1.41179605572303</v>
+        <v>1.411796055723016</v>
       </c>
       <c r="H15">
-        <v>0.7279739170681339</v>
+        <v>0.727973917068141</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.299289956887463</v>
+        <v>1.299289956887449</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.877520518377139</v>
+        <v>3.877520518377082</v>
       </c>
       <c r="C16">
-        <v>1.384307782095846</v>
+        <v>1.38430778209613</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>1.311181973313921</v>
+        <v>1.311181973313907</v>
       </c>
       <c r="H16">
         <v>0.6829260307741478</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.208096045157959</v>
+        <v>1.208096045157973</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.70254839185327</v>
+        <v>3.702548391853327</v>
       </c>
       <c r="C17">
-        <v>1.3193526696856</v>
+        <v>1.319352669685713</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.23449215076478</v>
+        <v>2.234492150764723</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.152965426085032</v>
+        <v>1.152965426085018</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.602678102413051</v>
+        <v>3.602678102413108</v>
       </c>
       <c r="C18">
-        <v>1.282388621868336</v>
+        <v>1.28238862186862</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.167249973687746</v>
+        <v>2.167249973687731</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
         <v>1.218727368171571</v>
       </c>
       <c r="H18">
-        <v>0.6423456509429855</v>
+        <v>0.6423456509430139</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.121524877864687</v>
+        <v>1.121524877864644</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.568988240584702</v>
+        <v>3.568988240584758</v>
       </c>
       <c r="C19">
-        <v>1.269937369597187</v>
+        <v>1.26993736959713</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.144656223595021</v>
+        <v>2.144656223594964</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>1.207614265242768</v>
+        <v>1.207614265242782</v>
       </c>
       <c r="H19">
         <v>0.637525719926451</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.110923211388922</v>
+        <v>1.11092321138895</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.721093046546628</v>
+        <v>3.721093046546514</v>
       </c>
       <c r="C20">
         <v>1.326225270262739</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.247022053260238</v>
+        <v>2.247022053260196</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.258170999390771</v>
+        <v>1.258170999390742</v>
       </c>
       <c r="H20">
-        <v>0.6595558917797533</v>
+        <v>0.6595558917797604</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.158805677966399</v>
+        <v>1.15880567796637</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.241938317758638</v>
+        <v>4.241938317758695</v>
       </c>
       <c r="C21">
-        <v>1.520397476941127</v>
+        <v>1.520397476941071</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.604675850723751</v>
+        <v>2.604675850723766</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.438613246941273</v>
+        <v>1.438613246941287</v>
       </c>
       <c r="H21">
-        <v>0.7401219170090769</v>
+        <v>0.740121917009084</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.323112323322931</v>
+        <v>1.32311232332296</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.591128937044687</v>
+        <v>4.59112893704463</v>
       </c>
       <c r="C22">
         <v>1.651846598201701</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.850876578598815</v>
+        <v>2.850876578598843</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
@@ -1190,13 +1190,13 @@
         <v>1.565800355885841</v>
       </c>
       <c r="H22">
-        <v>0.7984664211612582</v>
+        <v>0.7984664211612653</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.433574715018608</v>
+        <v>1.43357471501858</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.403850212081409</v>
+        <v>4.403850212081352</v>
       </c>
       <c r="C23">
-        <v>1.581218408047562</v>
+        <v>1.581218408047846</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1222,10 +1222,10 @@
         <v>2.718175367363685</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>1.496974029897771</v>
+        <v>1.496974029897757</v>
       </c>
       <c r="H23">
         <v>0.7667490119373639</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.712706774580738</v>
+        <v>3.712706774580965</v>
       </c>
       <c r="C24">
-        <v>1.323116995884448</v>
+        <v>1.323116995884732</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.241354066733322</v>
+        <v>2.241354066733336</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921572882</v>
       </c>
       <c r="G24">
-        <v>1.255358037044999</v>
+        <v>1.255358037045013</v>
       </c>
       <c r="H24">
-        <v>0.6583233376110513</v>
+        <v>0.6583233376110584</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.995872766420348</v>
+        <v>2.995872766420291</v>
       </c>
       <c r="C25">
-        <v>1.059498618971247</v>
+        <v>1.05949861897102</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.767076466519356</v>
+        <v>1.76707646651937</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>1.026141366591091</v>
+        <v>1.026141366591077</v>
       </c>
       <c r="H25">
-        <v>0.5608764713511292</v>
+        <v>0.5608764713511363</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.9309061448541627</v>
+        <v>0.9309061448541343</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_38/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.484550121830011</v>
+        <v>2.484550121829898</v>
       </c>
       <c r="C2">
-        <v>0.8739008022232326</v>
+        <v>0.8739008022229768</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.440724190970755</v>
+        <v>1.440724190970741</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7708209621112729</v>
+        <v>0.7708209621112516</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.145049900731522</v>
+        <v>2.145049900731578</v>
       </c>
       <c r="C3">
         <v>0.7517698812576725</v>
@@ -459,13 +459,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.229391595870354</v>
+        <v>1.229391595870339</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.7851009202908585</v>
+        <v>0.7851009202908443</v>
       </c>
       <c r="H3">
         <v>0.467274489075912</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6647980834395426</v>
+        <v>0.6647980834395639</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,10 +488,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.939165215619539</v>
+        <v>1.939165215619653</v>
       </c>
       <c r="C4">
-        <v>0.6781290119828043</v>
+        <v>0.6781290119824348</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -503,16 +503,16 @@
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.7324673947698273</v>
+        <v>0.7324673947698344</v>
       </c>
       <c r="H4">
-        <v>0.448722098575395</v>
+        <v>0.4487220985753879</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.600605718931142</v>
+        <v>0.6006057189311349</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.855794681119505</v>
+        <v>1.855794681119534</v>
       </c>
       <c r="C5">
         <v>0.6483997217501098</v>
@@ -535,16 +535,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.052689058459151</v>
+        <v>1.05268905845918</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.7118569677403954</v>
+        <v>0.7118569677404025</v>
       </c>
       <c r="H5">
-        <v>0.4417198177540484</v>
+        <v>0.4417198177540271</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.841979836021352</v>
+        <v>1.841979836021125</v>
       </c>
       <c r="C6">
-        <v>0.6434785003460206</v>
+        <v>0.6434785003459069</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.044327225377387</v>
+        <v>1.044327225377359</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.7084823218443574</v>
+        <v>0.7084823218443859</v>
       </c>
       <c r="H6">
-        <v>0.4405890557499248</v>
+        <v>0.440589055749939</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5703316347590999</v>
+        <v>0.570331634759107</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.938038854747361</v>
+        <v>1.938038854747248</v>
       </c>
       <c r="C7">
-        <v>0.6777270121653771</v>
+        <v>0.6777270121656045</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.10261628875034</v>
+        <v>1.102616288750298</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.7321861751746042</v>
+        <v>0.7321861751745971</v>
       </c>
       <c r="H7">
-        <v>0.448625483569387</v>
+        <v>0.4486254835693799</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.366882514319343</v>
+        <v>2.366882514319173</v>
       </c>
       <c r="C8">
-        <v>0.8314726315219332</v>
+        <v>0.8314726315220469</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.366997125510167</v>
+        <v>1.366997125510096</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -658,7 +658,7 @@
         <v>0.8444287697977586</v>
       </c>
       <c r="H8">
-        <v>0.4891559551394806</v>
+        <v>0.4891559551394664</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.234293738851818</v>
+        <v>3.234293738852102</v>
       </c>
       <c r="C9">
-        <v>1.146729479388426</v>
+        <v>1.14672947938854</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.005718793034916</v>
+        <v>1.00571879303493</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.897596269159919</v>
+        <v>3.897596269159976</v>
       </c>
       <c r="C10">
-        <v>1.391776458001686</v>
+        <v>1.3917764580018</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.366973076944475</v>
+        <v>2.366973076944419</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
         <v>1.318059399215613</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.214425407291387</v>
+        <v>1.214425407291401</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.207709262848141</v>
+        <v>4.207709262848198</v>
       </c>
       <c r="C11">
-        <v>1.507567881827526</v>
+        <v>1.507567881827129</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.580824874652066</v>
+        <v>2.580824874652023</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.426411947694817</v>
+        <v>1.426411947694803</v>
       </c>
       <c r="H11">
-        <v>0.7345878011267999</v>
+        <v>0.7345878011267857</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.32662130209377</v>
+        <v>4.326621302093884</v>
       </c>
       <c r="C12">
-        <v>1.552180337155733</v>
+        <v>1.552180337155903</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.663897840950312</v>
+        <v>2.663897840950227</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
@@ -810,7 +810,7 @@
         <v>1.469004332379512</v>
       </c>
       <c r="H12">
-        <v>0.7539560749678103</v>
+        <v>0.7539560749678031</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.300940752276006</v>
+        <v>4.300940752276063</v>
       </c>
       <c r="C13">
-        <v>1.542535636371383</v>
+        <v>1.542535636371213</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.64590607585184</v>
+        <v>2.645906075851855</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>1.459757284966614</v>
+        <v>1.459757284966599</v>
       </c>
       <c r="H13">
-        <v>0.7497393637206571</v>
+        <v>0.74973936372065</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.341759554711615</v>
+        <v>1.341759554711629</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.217460827698574</v>
+        <v>4.217460827698517</v>
       </c>
       <c r="C14">
-        <v>1.511221923276139</v>
+        <v>1.51122192327631</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.587614752266433</v>
+        <v>2.587614752266447</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.429883126271903</v>
+        <v>1.429883126271932</v>
       </c>
       <c r="H14">
-        <v>0.7361610329131452</v>
+        <v>0.7361610329131381</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.315378483952841</v>
+        <v>1.31537848395287</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.166528604663597</v>
+        <v>4.16652860466354</v>
       </c>
       <c r="C15">
-        <v>1.492145713024172</v>
+        <v>1.492145713023717</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.552195702885484</v>
+        <v>2.55219570288547</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>1.411796055723016</v>
+        <v>1.41179605572303</v>
       </c>
       <c r="H15">
-        <v>0.727973917068141</v>
+        <v>0.7279739170681339</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.299289956887449</v>
+        <v>1.299289956887463</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.877520518377082</v>
+        <v>3.877520518377139</v>
       </c>
       <c r="C16">
-        <v>1.38430778209613</v>
+        <v>1.384307782095846</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>1.311181973313907</v>
+        <v>1.311181973313921</v>
       </c>
       <c r="H16">
         <v>0.6829260307741478</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.208096045157973</v>
+        <v>1.208096045157959</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.702548391853327</v>
+        <v>3.70254839185327</v>
       </c>
       <c r="C17">
-        <v>1.319352669685713</v>
+        <v>1.3193526696856</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.234492150764723</v>
+        <v>2.23449215076478</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.152965426085018</v>
+        <v>1.152965426085032</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.602678102413108</v>
+        <v>3.602678102413051</v>
       </c>
       <c r="C18">
-        <v>1.28238862186862</v>
+        <v>1.282388621868336</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.167249973687731</v>
+        <v>2.167249973687746</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
         <v>1.218727368171571</v>
       </c>
       <c r="H18">
-        <v>0.6423456509430139</v>
+        <v>0.6423456509429855</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.121524877864644</v>
+        <v>1.121524877864687</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.568988240584758</v>
+        <v>3.568988240584702</v>
       </c>
       <c r="C19">
-        <v>1.26993736959713</v>
+        <v>1.269937369597187</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.144656223594964</v>
+        <v>2.144656223595021</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>1.207614265242782</v>
+        <v>1.207614265242768</v>
       </c>
       <c r="H19">
         <v>0.637525719926451</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.11092321138895</v>
+        <v>1.110923211388922</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.721093046546514</v>
+        <v>3.721093046546628</v>
       </c>
       <c r="C20">
         <v>1.326225270262739</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.247022053260196</v>
+        <v>2.247022053260238</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.258170999390742</v>
+        <v>1.258170999390771</v>
       </c>
       <c r="H20">
-        <v>0.6595558917797604</v>
+        <v>0.6595558917797533</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.15880567796637</v>
+        <v>1.158805677966399</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.241938317758695</v>
+        <v>4.241938317758638</v>
       </c>
       <c r="C21">
-        <v>1.520397476941071</v>
+        <v>1.520397476941127</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.604675850723766</v>
+        <v>2.604675850723751</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.438613246941287</v>
+        <v>1.438613246941273</v>
       </c>
       <c r="H21">
-        <v>0.740121917009084</v>
+        <v>0.7401219170090769</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.32311232332296</v>
+        <v>1.323112323322931</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.59112893704463</v>
+        <v>4.591128937044687</v>
       </c>
       <c r="C22">
         <v>1.651846598201701</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.850876578598843</v>
+        <v>2.850876578598815</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
@@ -1190,13 +1190,13 @@
         <v>1.565800355885841</v>
       </c>
       <c r="H22">
-        <v>0.7984664211612653</v>
+        <v>0.7984664211612582</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.43357471501858</v>
+        <v>1.433574715018608</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.403850212081352</v>
+        <v>4.403850212081409</v>
       </c>
       <c r="C23">
-        <v>1.581218408047846</v>
+        <v>1.581218408047562</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1222,10 +1222,10 @@
         <v>2.718175367363685</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>1.496974029897757</v>
+        <v>1.496974029897771</v>
       </c>
       <c r="H23">
         <v>0.7667490119373639</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.712706774580965</v>
+        <v>3.712706774580738</v>
       </c>
       <c r="C24">
-        <v>1.323116995884732</v>
+        <v>1.323116995884448</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.241354066733336</v>
+        <v>2.241354066733322</v>
       </c>
       <c r="F24">
-        <v>2.170038921572882</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.255358037045013</v>
+        <v>1.255358037044999</v>
       </c>
       <c r="H24">
-        <v>0.6583233376110584</v>
+        <v>0.6583233376110513</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.995872766420291</v>
+        <v>2.995872766420348</v>
       </c>
       <c r="C25">
-        <v>1.05949861897102</v>
+        <v>1.059498618971247</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.76707646651937</v>
+        <v>1.767076466519356</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>1.026141366591077</v>
+        <v>1.026141366591091</v>
       </c>
       <c r="H25">
-        <v>0.5608764713511363</v>
+        <v>0.5608764713511292</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.9309061448541343</v>
+        <v>0.9309061448541627</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.484550121829898</v>
+        <v>2.484505626129987</v>
       </c>
       <c r="C2">
-        <v>0.8739008022229768</v>
+        <v>0.8733379870832039</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.440724190970741</v>
+        <v>1.440682024175359</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.876944784562852</v>
+        <v>0.2804547620183655</v>
       </c>
       <c r="H2">
-        <v>0.5015158469238514</v>
+        <v>0.5981340228203749</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.5000075417271432</v>
       </c>
       <c r="J2">
-        <v>0.7708209621112516</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7706612604116287</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.145049900731578</v>
+        <v>2.145049121892953</v>
       </c>
       <c r="C3">
-        <v>0.7517698812576725</v>
+        <v>0.751299706512242</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.229391595870339</v>
+        <v>1.229368763090591</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.7851009202908443</v>
+        <v>0.2467558733382589</v>
       </c>
       <c r="H3">
-        <v>0.467274489075912</v>
+        <v>0.5403675884744956</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4659332392626254</v>
       </c>
       <c r="J3">
-        <v>0.6647980834395639</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6646721773285762</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.939165215619653</v>
+        <v>1.939186119880446</v>
       </c>
       <c r="C4">
-        <v>0.6781290119824348</v>
+        <v>0.6777127874341318</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.103301798311662</v>
+        <v>1.103288334634186</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.7324673947698344</v>
+        <v>0.2272874474393447</v>
       </c>
       <c r="H4">
-        <v>0.4487220985753879</v>
+        <v>0.5074266926767024</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4474800661124476</v>
       </c>
       <c r="J4">
-        <v>0.6006057189311349</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.60049869662177</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.855794681119534</v>
+        <v>1.855823316516023</v>
       </c>
       <c r="C5">
-        <v>0.6483997217501098</v>
+        <v>0.648004868080676</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.05268905845918</v>
+        <v>1.052678908323955</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.7118569677404025</v>
+        <v>0.2196248254377196</v>
       </c>
       <c r="H5">
-        <v>0.4417198177540271</v>
+        <v>0.4945685119271914</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4405175109229091</v>
       </c>
       <c r="J5">
-        <v>0.5746340163086145</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5745342929597115</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.841979836021125</v>
+        <v>1.842009693570134</v>
       </c>
       <c r="C6">
-        <v>0.6434785003459069</v>
+        <v>0.6430871614775242</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.044327225377359</v>
+        <v>1.044317598195377</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.7084823218443859</v>
+        <v>0.2183678172860084</v>
       </c>
       <c r="H6">
-        <v>0.440589055749939</v>
+        <v>0.4924656599064221</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4393933063599391</v>
       </c>
       <c r="J6">
-        <v>0.570331634759107</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5702331014109561</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.938038854747248</v>
+        <v>1.938059867511384</v>
       </c>
       <c r="C7">
-        <v>0.6777270121656045</v>
+        <v>0.6773110781688843</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.102616288750298</v>
+        <v>1.102602871654966</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.7321861751745971</v>
+        <v>0.2271830553038185</v>
       </c>
       <c r="H7">
-        <v>0.4486254835693799</v>
+        <v>0.507251080565851</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.4473839895509357</v>
       </c>
       <c r="J7">
-        <v>0.6002547480645148</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6001478257067845</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.366882514319173</v>
+        <v>2.366854287513206</v>
       </c>
       <c r="C8">
-        <v>0.8314726315220469</v>
+        <v>0.8309424466453947</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.366997125510096</v>
+        <v>1.366962227397721</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.8444287697977586</v>
+        <v>0.2685583346849967</v>
       </c>
       <c r="H8">
-        <v>0.4891559551394664</v>
+        <v>0.5776468729519877</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.4877060357384764</v>
       </c>
       <c r="J8">
-        <v>0.7340503088440897</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7339026946021008</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.234293738852102</v>
+        <v>3.234117648890276</v>
       </c>
       <c r="C9">
-        <v>1.14672947938854</v>
+        <v>1.145945378964768</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.922614124696864</v>
+        <v>1.922510013265708</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>1.099872273638141</v>
+        <v>0.3612799620776457</v>
       </c>
       <c r="H9">
-        <v>0.5915168911608717</v>
+        <v>0.7393615503493578</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.5896242706948769</v>
       </c>
       <c r="J9">
-        <v>1.00571879303493</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.005472634591698</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.897596269159976</v>
+        <v>3.897262366417408</v>
       </c>
       <c r="C10">
-        <v>1.3917764580018</v>
+        <v>1.390776209959256</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.366973076944419</v>
+        <v>2.366787960305516</v>
       </c>
       <c r="F10">
         <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>1.318059399215613</v>
+        <v>0.4395292702496363</v>
       </c>
       <c r="H10">
-        <v>0.6859772017606858</v>
+        <v>0.8784798542119319</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.6837260374074958</v>
       </c>
       <c r="J10">
-        <v>1.214425407291401</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.21408863398797</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.207709262848198</v>
+        <v>4.207287541175162</v>
       </c>
       <c r="C11">
-        <v>1.507567881827129</v>
+        <v>1.506459489299402</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.580824874652023</v>
+        <v>2.580591815013548</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.426411947694803</v>
+        <v>0.4781687669126882</v>
       </c>
       <c r="H11">
-        <v>0.7345878011267857</v>
+        <v>0.9477943747312167</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.7321625971555719</v>
       </c>
       <c r="J11">
-        <v>1.312297743941002</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.311913769998299</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.326621302093884</v>
+        <v>4.326163428948519</v>
       </c>
       <c r="C12">
-        <v>1.552180337155903</v>
+        <v>1.551029208047964</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.663897840950227</v>
+        <v>2.663644482589348</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>1.469004332379512</v>
+        <v>0.4933248570506379</v>
       </c>
       <c r="H12">
-        <v>0.7539560749678031</v>
+        <v>0.9750751475377228</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.7514629904344119</v>
       </c>
       <c r="J12">
-        <v>1.349877887970251</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.349474957174067</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.300940752276063</v>
+        <v>4.300490804890444</v>
       </c>
       <c r="C13">
-        <v>1.542535636371213</v>
+        <v>1.541393797694695</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.645906075851855</v>
+        <v>2.645657195283178</v>
       </c>
       <c r="F13">
         <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>1.459757284966599</v>
+        <v>0.490035852553504</v>
       </c>
       <c r="H13">
-        <v>0.74973936372065</v>
+        <v>0.9691508206349511</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.7472609938429287</v>
       </c>
       <c r="J13">
-        <v>1.341759554711629</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.341360758956114</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.217460827698517</v>
+        <v>4.217036193803267</v>
       </c>
       <c r="C14">
-        <v>1.51122192327631</v>
+        <v>1.510110053027063</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.587614752266447</v>
+        <v>2.587380069409207</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.429883126271932</v>
+        <v>0.4794046078628043</v>
       </c>
       <c r="H14">
-        <v>0.7361610329131381</v>
+        <v>0.950017015767429</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.7337302866247342</v>
       </c>
       <c r="J14">
-        <v>1.31537848395287</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.314992973606621</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.16652860466354</v>
+        <v>4.166119078685995</v>
       </c>
       <c r="C15">
-        <v>1.492145713023717</v>
+        <v>1.49105195421464</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.55219570288547</v>
+        <v>2.551969417948257</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>1.41179605572303</v>
+        <v>0.4729637726992451</v>
       </c>
       <c r="H15">
-        <v>0.7279739170681339</v>
+        <v>0.9384369824589101</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.7255720706834268</v>
       </c>
       <c r="J15">
-        <v>1.299289956887463</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.298912435606866</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.877520518377139</v>
+        <v>3.877191985013496</v>
       </c>
       <c r="C16">
-        <v>1.384307782095846</v>
+        <v>1.383314374184238</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.353265914087856</v>
+        <v>2.353083664489645</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>1.311181973313921</v>
+        <v>0.4370723620166217</v>
       </c>
       <c r="H16">
-        <v>0.6829260307741478</v>
+        <v>0.8740847908555054</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.6806859879734404</v>
       </c>
       <c r="J16">
-        <v>1.208096045157959</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.207762218369822</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.70254839185327</v>
+        <v>3.702265062869458</v>
       </c>
       <c r="C17">
-        <v>1.3193526696856</v>
+        <v>1.318418071583551</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.23449215076478</v>
+        <v>2.234333736679702</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>1.251954639358559</v>
+        <v>0.4158903044399551</v>
       </c>
       <c r="H17">
-        <v>0.656833120199309</v>
+        <v>0.8362596186906472</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.6546892799056181</v>
       </c>
       <c r="J17">
-        <v>1.152965426085032</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.152656730799933</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.602678102413051</v>
+        <v>3.602419307850028</v>
       </c>
       <c r="C18">
-        <v>1.282388621868336</v>
+        <v>1.281486952446642</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.167249973687746</v>
+        <v>2.167104266396834</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.218727368171571</v>
+        <v>0.4039873920187915</v>
       </c>
       <c r="H18">
-        <v>0.6423456509429855</v>
+        <v>0.8150595008729198</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.6402561433947938</v>
       </c>
       <c r="J18">
-        <v>1.121524877864687</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.121230090872174</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.568988240584702</v>
+        <v>3.56873751689011</v>
       </c>
       <c r="C19">
-        <v>1.269937369597187</v>
+        <v>1.269046705090204</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.144656223595021</v>
+        <v>2.144514660338572</v>
       </c>
       <c r="F19">
         <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>1.207614265242768</v>
+        <v>0.4000030568040387</v>
       </c>
       <c r="H19">
-        <v>0.637525719926451</v>
+        <v>0.8079724185589043</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.6354544474607309</v>
       </c>
       <c r="J19">
-        <v>1.110923211388922</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.110633045545299</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.721093046546628</v>
+        <v>3.720805061019973</v>
       </c>
       <c r="C20">
-        <v>1.326225270262739</v>
+        <v>1.325284507021081</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.247022053260238</v>
+        <v>2.246861209043928</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.258170999390771</v>
+        <v>0.4181155697487355</v>
       </c>
       <c r="H20">
-        <v>0.6595558917797533</v>
+        <v>0.8402275328243292</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.6574019167178307</v>
       </c>
       <c r="J20">
-        <v>1.158805677966399</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.158494365412267</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.241938317758638</v>
+        <v>4.241506332758888</v>
       </c>
       <c r="C21">
-        <v>1.520397476941127</v>
+        <v>1.519276856119063</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.604675850723751</v>
+        <v>2.604437061131932</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.438613246941273</v>
+        <v>0.4825122645225548</v>
       </c>
       <c r="H21">
-        <v>0.7401219170090769</v>
+        <v>0.9556075650859412</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.7376772398424194</v>
       </c>
       <c r="J21">
-        <v>1.323112323322931</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.322722942186672</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.591128937044687</v>
+        <v>4.590585562758918</v>
       </c>
       <c r="C22">
-        <v>1.651846598201701</v>
+        <v>1.650597779609029</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.850876578598815</v>
+        <v>2.850573948008147</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>1.565800355885841</v>
+        <v>0.5277074128957224</v>
       </c>
       <c r="H22">
-        <v>0.7984664211612582</v>
+        <v>1.037137130990089</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.7958199727859707</v>
       </c>
       <c r="J22">
-        <v>1.433574715018608</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.43312785015523</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.403850212081409</v>
+        <v>4.403368107196513</v>
       </c>
       <c r="C23">
-        <v>1.581218408047562</v>
+        <v>1.580039135290576</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.718175367363685</v>
+        <v>2.717908223759935</v>
       </c>
       <c r="F23">
         <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>1.496974029897771</v>
+        <v>0.5032683598019076</v>
       </c>
       <c r="H23">
-        <v>0.7667490119373639</v>
+        <v>0.9929995160275524</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.764211491463314</v>
       </c>
       <c r="J23">
-        <v>1.37430018822414</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.373884684435481</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.712706774580738</v>
+        <v>3.712420898764321</v>
       </c>
       <c r="C24">
-        <v>1.323116995884448</v>
+        <v>1.322179022622549</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.241354066733322</v>
+        <v>2.241194324245683</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.255358037044999</v>
+        <v>0.417108677240563</v>
       </c>
       <c r="H24">
-        <v>0.6583233376110513</v>
+        <v>0.8384319500291042</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.656173947486451</v>
       </c>
       <c r="J24">
-        <v>1.156164513535757</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.155854385915362</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.995872766420348</v>
+        <v>2.995743797738839</v>
       </c>
       <c r="C25">
-        <v>1.059498618971247</v>
+        <v>1.058787444669775</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.767076466519356</v>
+        <v>1.766995160790458</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>1.026141366591091</v>
+        <v>0.3346678641939604</v>
       </c>
       <c r="H25">
-        <v>0.5608764713511292</v>
+        <v>0.6925267447451375</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.5591084023563155</v>
       </c>
       <c r="J25">
-        <v>0.9309061448541627</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9306892699375027</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.484505626129987</v>
+        <v>2.064442287870691</v>
       </c>
       <c r="C2">
-        <v>0.8733379870832039</v>
+        <v>0.4366566310380904</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.440682024175359</v>
+        <v>0.1545210831034325</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>6.672044099542546</v>
       </c>
       <c r="G2">
-        <v>0.2804547620183655</v>
+        <v>0.0008129299930521945</v>
       </c>
       <c r="H2">
-        <v>0.5981340228203749</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5000075417271432</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6774200444235845</v>
       </c>
       <c r="K2">
-        <v>0.7706612604116287</v>
+        <v>0.5565513115977865</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.1187281325824152</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.145049121892953</v>
+        <v>1.778508812080645</v>
       </c>
       <c r="C3">
-        <v>0.751299706512242</v>
+        <v>0.372989257671037</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.229368763090591</v>
+        <v>0.1315232937010755</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>5.915747101690897</v>
       </c>
       <c r="G3">
-        <v>0.2467558733382589</v>
+        <v>0.0008236645982081853</v>
       </c>
       <c r="H3">
-        <v>0.5403675884744956</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4659332392626254</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5988105195757072</v>
       </c>
       <c r="K3">
-        <v>0.6646721773285762</v>
+        <v>0.4782820223292887</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.09969713412041514</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.939186119880446</v>
+        <v>1.607623283409197</v>
       </c>
       <c r="C4">
-        <v>0.6777127874341318</v>
+        <v>0.3350081821353115</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.103288334634186</v>
+        <v>0.1178873124324404</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>5.463073381630153</v>
       </c>
       <c r="G4">
-        <v>0.2272874474393447</v>
+        <v>0.0008303863998562023</v>
       </c>
       <c r="H4">
-        <v>0.5074266926767024</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4474800661124476</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5516747016416161</v>
       </c>
       <c r="K4">
-        <v>0.60049869662177</v>
+        <v>0.4315251075808249</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.08896955772400261</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.855823316516023</v>
+        <v>1.539000287436977</v>
       </c>
       <c r="C5">
-        <v>0.648004868080676</v>
+        <v>0.3197681970835902</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.052678908323955</v>
+        <v>0.1124348365039154</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>5.281113482160833</v>
       </c>
       <c r="G5">
-        <v>0.2196248254377196</v>
+        <v>0.0008331616677545954</v>
       </c>
       <c r="H5">
-        <v>0.4945685119271914</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4405175109229091</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.532702792293307</v>
       </c>
       <c r="K5">
-        <v>0.5745342929597115</v>
+        <v>0.4127523293944293</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.08481146440363574</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.842009693570134</v>
+        <v>1.527662333876862</v>
       </c>
       <c r="C6">
-        <v>0.6430871614775242</v>
+        <v>0.3172508279129147</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.044317598195377</v>
+        <v>0.1115352767922388</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>5.25103889404275</v>
       </c>
       <c r="G6">
-        <v>0.2183678172860084</v>
+        <v>0.0008336247656411175</v>
       </c>
       <c r="H6">
-        <v>0.4924656599064221</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4393933063599391</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5295654868138087</v>
       </c>
       <c r="K6">
-        <v>0.5702331014109561</v>
+        <v>0.4096508465642046</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.08413317360645678</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.938059867511384</v>
+        <v>1.606693904851909</v>
       </c>
       <c r="C7">
-        <v>0.6773110781688843</v>
+        <v>0.3348017400687979</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.102602871654966</v>
+        <v>0.1178133780511743</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>5.460609789134878</v>
       </c>
       <c r="G7">
-        <v>0.2271830553038185</v>
+        <v>0.0008304236780300528</v>
       </c>
       <c r="H7">
-        <v>0.507251080565851</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4473839895509357</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5514179427425745</v>
       </c>
       <c r="K7">
-        <v>0.6001478257067845</v>
+        <v>0.4312708506081293</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.08891264954110056</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.366854287513206</v>
+        <v>1.964777865958411</v>
       </c>
       <c r="C8">
-        <v>0.8309424466453947</v>
+        <v>0.4144468623507294</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.366962227397721</v>
+        <v>0.146479625655239</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>6.408569722077061</v>
       </c>
       <c r="G8">
-        <v>0.2685583346849967</v>
+        <v>0.0008166061978111728</v>
       </c>
       <c r="H8">
-        <v>0.5776468729519877</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4877060357384764</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.6500501924418103</v>
       </c>
       <c r="K8">
-        <v>0.7339026946021008</v>
+        <v>0.5292647160288411</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.1119499881474653</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.234117648890276</v>
+        <v>2.712521151078477</v>
       </c>
       <c r="C9">
-        <v>1.145945378964768</v>
+        <v>0.581623215815398</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.922510013265708</v>
+        <v>0.2074505313317232</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>8.382726951304278</v>
       </c>
       <c r="G9">
-        <v>0.3612799620776457</v>
+        <v>0.0007903818170317428</v>
       </c>
       <c r="H9">
-        <v>0.7393615503493578</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5896242706948769</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.8549268742863205</v>
       </c>
       <c r="K9">
-        <v>1.005472634591698</v>
+        <v>0.7341428043788554</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.1661620119296394</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.897262366417408</v>
+        <v>3.303453571230705</v>
       </c>
       <c r="C10">
-        <v>1.390776209959256</v>
+        <v>0.7147450332661265</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.366787960305516</v>
+        <v>0.2566356651821522</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>9.940072492595192</v>
       </c>
       <c r="G10">
-        <v>0.4395292702496363</v>
+        <v>0.000771376615422361</v>
       </c>
       <c r="H10">
-        <v>0.8784798542119319</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6837260374074958</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.016511123730737</v>
       </c>
       <c r="K10">
-        <v>1.21408863398797</v>
+        <v>0.8963450317066304</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.2139048133612036</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.207287541175162</v>
+        <v>3.585128107545131</v>
       </c>
       <c r="C11">
-        <v>1.506459489299402</v>
+        <v>0.7785467530033543</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.580591815013548</v>
+        <v>0.2803770892232862</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>10.68190876115204</v>
       </c>
       <c r="G11">
-        <v>0.4781687669126882</v>
+        <v>0.0007627135247246078</v>
       </c>
       <c r="H11">
-        <v>0.9477943747312167</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7321625971555719</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.093550192216611</v>
       </c>
       <c r="K11">
-        <v>1.311913769998299</v>
+        <v>0.9737606123663909</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.2380266695522799</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.326163428948519</v>
+        <v>3.694032962062636</v>
       </c>
       <c r="C12">
-        <v>1.551029208047964</v>
+        <v>0.8032777801000179</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.663644482589348</v>
+        <v>0.2896065248726813</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>10.96866829236205</v>
       </c>
       <c r="G12">
-        <v>0.4933248570506379</v>
+        <v>0.0007594229423437682</v>
       </c>
       <c r="H12">
-        <v>0.9750751475377228</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7514629904344119</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.123347422626551</v>
       </c>
       <c r="K12">
-        <v>1.349474957174067</v>
+        <v>1.003710234712088</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.2475788419944536</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.300490804890444</v>
+        <v>3.670471622528055</v>
       </c>
       <c r="C13">
-        <v>1.541393797694695</v>
+        <v>0.797924241040306</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.645657195283178</v>
+        <v>0.2876074002473104</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>10.90663090630636</v>
       </c>
       <c r="G13">
-        <v>0.490035852553504</v>
+        <v>0.0007601322111806571</v>
       </c>
       <c r="H13">
-        <v>0.9691508206349511</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7472609938429287</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.116900199316433</v>
       </c>
       <c r="K13">
-        <v>1.341360758956114</v>
+        <v>0.997229824314914</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.2455017153153598</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.217036193803267</v>
+        <v>3.594040347527084</v>
       </c>
       <c r="C14">
-        <v>1.510110053027063</v>
+        <v>0.7805692794881338</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.587380069409207</v>
+        <v>0.2811313356043783</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>10.70537687139694</v>
       </c>
       <c r="G14">
-        <v>0.4794046078628043</v>
+        <v>0.0007624430564225834</v>
       </c>
       <c r="H14">
-        <v>0.950017015767429</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7337302866247342</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.095988372017644</v>
       </c>
       <c r="K14">
-        <v>1.314992973606621</v>
+        <v>0.9762111576984012</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.2388036918283305</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.166119078685995</v>
+        <v>3.54752873571482</v>
       </c>
       <c r="C15">
-        <v>1.49105195421464</v>
+        <v>0.7700166368581733</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.551969417948257</v>
+        <v>0.2771970971873614</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>10.58289810022842</v>
       </c>
       <c r="G15">
-        <v>0.4729637726992451</v>
+        <v>0.0007638569580916688</v>
       </c>
       <c r="H15">
-        <v>0.9384369824589101</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7255720706834268</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.083264395004704</v>
       </c>
       <c r="K15">
-        <v>1.298912435606866</v>
+        <v>0.963422889027143</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.2347577648462007</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.877191985013496</v>
+        <v>3.28533603024249</v>
       </c>
       <c r="C16">
-        <v>1.383314374184238</v>
+        <v>0.7106491665845738</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.353083664489645</v>
+        <v>0.255115064099364</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>9.892348210744757</v>
       </c>
       <c r="G16">
-        <v>0.4370723620166217</v>
+        <v>0.0007719418032144837</v>
       </c>
       <c r="H16">
-        <v>0.8740847908555054</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6806859879734404</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.011556970044978</v>
       </c>
       <c r="K16">
-        <v>1.207762218369822</v>
+        <v>0.8913678732402701</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.2123825863469477</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.702265062869458</v>
+        <v>3.128038621381734</v>
       </c>
       <c r="C17">
-        <v>1.318418071583551</v>
+        <v>0.6751279561073318</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.234333736679702</v>
+        <v>0.2419463298763347</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>9.477951531064093</v>
       </c>
       <c r="G17">
-        <v>0.4158903044399551</v>
+        <v>0.0007768921668673753</v>
       </c>
       <c r="H17">
-        <v>0.8362596186906472</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6546892799056181</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.9685477166207761</v>
       </c>
       <c r="K17">
-        <v>1.152656730799933</v>
+        <v>0.8481672443847259</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.1993185088983331</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.602419307850028</v>
+        <v>3.038748070084864</v>
       </c>
       <c r="C18">
-        <v>1.281486952446642</v>
+        <v>0.6549951248298953</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.167104266396834</v>
+        <v>0.234497708581543</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>9.242671983363749</v>
       </c>
       <c r="G18">
-        <v>0.4039873920187915</v>
+        <v>0.0007797383594735437</v>
       </c>
       <c r="H18">
-        <v>0.8150595008729198</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6402561433947938</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.9441344263186124</v>
       </c>
       <c r="K18">
-        <v>1.121230090872174</v>
+        <v>0.8236531268284324</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.1920255229494892</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.56873751689011</v>
+        <v>3.0087081877125</v>
       </c>
       <c r="C19">
-        <v>1.269046705090204</v>
+        <v>0.6482268280537653</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.144514660338572</v>
+        <v>0.231996152766996</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>9.163509121049486</v>
       </c>
       <c r="G19">
-        <v>0.4000030568040387</v>
+        <v>0.0007807020452996846</v>
       </c>
       <c r="H19">
-        <v>0.8079724185589043</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6354544474607309</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.9359210499305561</v>
       </c>
       <c r="K19">
-        <v>1.110633045545299</v>
+        <v>0.8154073084366047</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.1895922597640904</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.720805061019973</v>
+        <v>3.144658181532634</v>
       </c>
       <c r="C20">
-        <v>1.325284507021081</v>
+        <v>0.6788777141234448</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.246861209043928</v>
+        <v>0.2433348736325556</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>9.521740064858534</v>
       </c>
       <c r="G20">
-        <v>0.4181155697487355</v>
+        <v>0.0007763653588504405</v>
       </c>
       <c r="H20">
-        <v>0.8402275328243292</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6574019167178307</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.9730917698461781</v>
       </c>
       <c r="K20">
-        <v>1.158494365412267</v>
+        <v>0.8527307389688588</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.2006858411322838</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.241506332758888</v>
+        <v>3.616425745430206</v>
       </c>
       <c r="C21">
-        <v>1.519276856119063</v>
+        <v>0.7856504280826755</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.604437061131932</v>
+        <v>0.2830266438201079</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>10.7643222042293</v>
       </c>
       <c r="G21">
-        <v>0.4825122645225548</v>
+        <v>0.00076176464564782</v>
       </c>
       <c r="H21">
-        <v>0.9556075650859412</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7376772398424194</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.102112703270592</v>
       </c>
       <c r="K21">
-        <v>1.322722942186672</v>
+        <v>0.9823666384710066</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.2407590742363723</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.590585562758918</v>
+        <v>3.938055335254489</v>
       </c>
       <c r="C22">
-        <v>1.650597779609029</v>
+        <v>0.8588237489066444</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.850573948008147</v>
+        <v>0.3103872273734609</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>11.61111364797068</v>
       </c>
       <c r="G22">
-        <v>0.5277074128957224</v>
+        <v>0.0007521589947963545</v>
       </c>
       <c r="H22">
-        <v>1.037137130990089</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7958199727859707</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.190145188857883</v>
       </c>
       <c r="K22">
-        <v>1.43312785015523</v>
+        <v>1.070855889008158</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.2694296794276205</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.403368107196513</v>
+        <v>3.76502791601115</v>
       </c>
       <c r="C23">
-        <v>1.580039135290576</v>
+        <v>0.8194192474612692</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.717908223759935</v>
+        <v>0.2956381167349988</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>11.15559152470706</v>
       </c>
       <c r="G23">
-        <v>0.5032683598019076</v>
+        <v>0.0007572943845552203</v>
       </c>
       <c r="H23">
-        <v>0.9929995160275524</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.764211491463314</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.142776537469587</v>
       </c>
       <c r="K23">
-        <v>1.373884684435481</v>
+        <v>1.023239918328258</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.2538725924959735</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.712420898764321</v>
+        <v>3.137140950388357</v>
       </c>
       <c r="C24">
-        <v>1.322179022622549</v>
+        <v>0.6771815565849408</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.241194324245683</v>
+        <v>0.2427067352733943</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>9.501934116564001</v>
       </c>
       <c r="G24">
-        <v>0.417108677240563</v>
+        <v>0.0007766035274771452</v>
       </c>
       <c r="H24">
-        <v>0.8384319500291042</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.656173947486451</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.9710364359266634</v>
       </c>
       <c r="K24">
-        <v>1.155854385915362</v>
+        <v>0.850666586710048</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.2000669972952487</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.995743797738839</v>
+        <v>2.504066430470345</v>
       </c>
       <c r="C25">
-        <v>1.058787444669775</v>
+        <v>0.5348848449577019</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.766995160790458</v>
+        <v>0.1903072968311221</v>
       </c>
       <c r="F25">
-        <v>1.757113814925404</v>
+        <v>7.832886414325202</v>
       </c>
       <c r="G25">
-        <v>0.3346678641939604</v>
+        <v>0.0007974082661282226</v>
       </c>
       <c r="H25">
-        <v>0.6925267447451375</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5591084023563155</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.7978932405321473</v>
       </c>
       <c r="K25">
-        <v>0.9306892699375027</v>
+        <v>0.6769887659685025</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0.1503059335563499</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_38/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.064442287870691</v>
+        <v>2.586481468126806</v>
       </c>
       <c r="C2">
-        <v>0.4366566310380904</v>
+        <v>0.9302137343204322</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1545210831034325</v>
+        <v>0.02818724510031867</v>
       </c>
       <c r="F2">
-        <v>6.672044099542546</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0008129299930521945</v>
+        <v>0.0008219381934229109</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.994768545617887</v>
       </c>
       <c r="J2">
-        <v>0.6774200444235845</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5565513115977865</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1921894337568801</v>
       </c>
       <c r="M2">
-        <v>0.1187281325824152</v>
+        <v>0.4558356405614319</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.778508812080645</v>
+        <v>2.243324583398021</v>
       </c>
       <c r="C3">
-        <v>0.372989257671037</v>
+        <v>0.798114351885971</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1315232937010755</v>
+        <v>0.02603218981090993</v>
       </c>
       <c r="F3">
-        <v>5.915747101690897</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008236645982081853</v>
+        <v>0.0008326043382427009</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.731871583796433</v>
       </c>
       <c r="J3">
-        <v>0.5988105195757072</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4782820223292887</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1740599453915621</v>
       </c>
       <c r="M3">
-        <v>0.09969713412041514</v>
+        <v>0.3986198698210046</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.607623283409197</v>
+        <v>2.037697568961335</v>
       </c>
       <c r="C4">
-        <v>0.3350081821353115</v>
+        <v>0.7188284850000741</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1178873124324404</v>
+        <v>0.0247343821530972</v>
       </c>
       <c r="F4">
-        <v>5.463073381630153</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008303863998562023</v>
+        <v>0.0008392957415995118</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.57557550639234</v>
       </c>
       <c r="J4">
-        <v>0.5516747016416161</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4315251075808249</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1632757766590203</v>
       </c>
       <c r="M4">
-        <v>0.08896955772400261</v>
+        <v>0.3643872084725572</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.539000287436977</v>
+        <v>1.955012215488125</v>
       </c>
       <c r="C5">
-        <v>0.3197681970835902</v>
+        <v>0.6869073546550339</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1124348365039154</v>
+        <v>0.02421043818687707</v>
       </c>
       <c r="F5">
-        <v>5.281113482160833</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008331616677545954</v>
+        <v>0.0008420611497646039</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.513013099109642</v>
       </c>
       <c r="J5">
-        <v>0.532702792293307</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4127523293944293</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1589593837253531</v>
       </c>
       <c r="M5">
-        <v>0.08481146440363574</v>
+        <v>0.3506351968587609</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.527662333876862</v>
+        <v>1.941344835862083</v>
       </c>
       <c r="C6">
-        <v>0.3172508279129147</v>
+        <v>0.681628426423373</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1115352767922388</v>
+        <v>0.02412369538588877</v>
       </c>
       <c r="F6">
-        <v>5.25103889404275</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0008336247656411175</v>
+        <v>0.0008425227526336619</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.502688515318852</v>
       </c>
       <c r="J6">
-        <v>0.5295654868138087</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4096508465642046</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.158247125606124</v>
       </c>
       <c r="M6">
-        <v>0.08413317360645678</v>
+        <v>0.3483628904883247</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.606693904851909</v>
+        <v>2.036578161157934</v>
       </c>
       <c r="C7">
-        <v>0.3348017400687979</v>
+        <v>0.7183964998501153</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1178133780511743</v>
+        <v>0.02472729794165041</v>
       </c>
       <c r="F7">
-        <v>5.460609789134878</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0008304236780300528</v>
+        <v>0.0008393328770676881</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.574727393681911</v>
       </c>
       <c r="J7">
-        <v>0.5514179427425745</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4312708506081293</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1632172588849556</v>
       </c>
       <c r="M7">
-        <v>0.08891264954110056</v>
+        <v>0.3642009766815661</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.964777865958411</v>
+        <v>2.467002433792914</v>
       </c>
       <c r="C8">
-        <v>0.4144468623507294</v>
+        <v>0.8842428019529223</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.146479625655239</v>
+        <v>0.02743797132486936</v>
       </c>
       <c r="F8">
-        <v>6.408569722077061</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0008166061978111728</v>
+        <v>0.0008255881173978749</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.902957664726685</v>
       </c>
       <c r="J8">
-        <v>0.6500501924418103</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5292647160288411</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1858605053422977</v>
       </c>
       <c r="M8">
-        <v>0.1119499881474653</v>
+        <v>0.4359036253956248</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.712521151078477</v>
+        <v>3.359869594979955</v>
       </c>
       <c r="C9">
-        <v>0.581623215815398</v>
+        <v>1.227544518644891</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2074505313317232</v>
+        <v>0.03303186399929636</v>
       </c>
       <c r="F9">
-        <v>8.382726951304278</v>
+        <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0.0007903818170317428</v>
+        <v>0.0007996206929684736</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.595359206144622</v>
       </c>
       <c r="J9">
-        <v>0.8549268742863205</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7341428043788554</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2334855439032566</v>
       </c>
       <c r="M9">
-        <v>0.1661620119296394</v>
+        <v>0.5850630344176864</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.303453571230705</v>
+        <v>4.059483343563443</v>
       </c>
       <c r="C10">
-        <v>0.7147450332661265</v>
+        <v>1.496643687520361</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2566356651821522</v>
+        <v>0.03743839800246818</v>
       </c>
       <c r="F10">
-        <v>9.940072492595192</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.000771376615422361</v>
+        <v>0.0007809130593925896</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.146749587053847</v>
       </c>
       <c r="J10">
-        <v>1.016511123730737</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8963450317066304</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2711861891185237</v>
       </c>
       <c r="M10">
-        <v>0.2139048133612036</v>
+        <v>0.70216738617912</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.585128107545131</v>
+        <v>4.390995541997711</v>
       </c>
       <c r="C11">
-        <v>0.7785467530033543</v>
+        <v>1.624323363422491</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2803770892232862</v>
+        <v>0.03954310029383024</v>
       </c>
       <c r="F11">
-        <v>10.68190876115204</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007627135247246078</v>
+        <v>0.0007724210003248732</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.410339913086517</v>
       </c>
       <c r="J11">
-        <v>1.093550192216611</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9737606123663909</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.289125824215219</v>
       </c>
       <c r="M11">
-        <v>0.2380266695522799</v>
+        <v>0.7576970855876795</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.694032962062636</v>
+        <v>4.518817316131276</v>
       </c>
       <c r="C12">
-        <v>0.8032777801000179</v>
+        <v>1.673591307744061</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2896065248726813</v>
+        <v>0.04035820596900308</v>
       </c>
       <c r="F12">
-        <v>10.96866829236205</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007594229423437682</v>
+        <v>0.0007692016731300175</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.512338589500956</v>
       </c>
       <c r="J12">
-        <v>1.123347422626551</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.003710234712088</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2960526099075906</v>
       </c>
       <c r="M12">
-        <v>0.2475788419944536</v>
+        <v>0.7791123344556254</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.670471622528055</v>
+        <v>4.491180203166095</v>
       </c>
       <c r="C13">
-        <v>0.797924241040306</v>
+        <v>1.662936843985904</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2876074002473104</v>
+        <v>0.04018178638156122</v>
       </c>
       <c r="F13">
-        <v>10.90663090630636</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.0007601322111806571</v>
+        <v>0.0007698952815299604</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.490268091596676</v>
       </c>
       <c r="J13">
-        <v>1.116900199316433</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.997229824314914</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.294554514824469</v>
       </c>
       <c r="M13">
-        <v>0.2455017153153598</v>
+        <v>0.774481834322323</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.594040347527084</v>
+        <v>4.401463302340005</v>
       </c>
       <c r="C14">
-        <v>0.7805692794881338</v>
+        <v>1.628357232342807</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2811313356043783</v>
+        <v>0.03960977291429657</v>
       </c>
       <c r="F14">
-        <v>10.70537687139694</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007624430564225834</v>
+        <v>0.0007721562551640645</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.418685455892359</v>
       </c>
       <c r="J14">
-        <v>1.095988372017644</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9762111576984012</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.289692894774717</v>
       </c>
       <c r="M14">
-        <v>0.2388036918283305</v>
+        <v>0.7594507700507833</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.54752873571482</v>
+        <v>4.346819122724924</v>
       </c>
       <c r="C15">
-        <v>0.7700166368581733</v>
+        <v>1.607301108500565</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2771970971873614</v>
+        <v>0.03926187779758905</v>
       </c>
       <c r="F15">
-        <v>10.58289810022842</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007638569580916688</v>
+        <v>0.0007735405003032228</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.375134611553847</v>
       </c>
       <c r="J15">
-        <v>1.083264395004704</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.963422889027143</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.286733037161099</v>
       </c>
       <c r="M15">
-        <v>0.2347577648462007</v>
+        <v>0.7502962983794887</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.28533603024249</v>
+        <v>4.038115904624874</v>
       </c>
       <c r="C16">
-        <v>0.7106491665845738</v>
+        <v>1.488418618496723</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.255115064099364</v>
+        <v>0.03730316594643668</v>
       </c>
       <c r="F16">
-        <v>9.892348210744757</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007719418032144837</v>
+        <v>0.0007814678959567812</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.129808539399818</v>
       </c>
       <c r="J16">
-        <v>1.011556970044978</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8913678732402701</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2700313061231583</v>
       </c>
       <c r="M16">
-        <v>0.2123825863469477</v>
+        <v>0.6985889451425038</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.128038621381734</v>
+        <v>3.85238120268798</v>
       </c>
       <c r="C17">
-        <v>0.6751279561073318</v>
+        <v>1.416942732035636</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2419463298763347</v>
+        <v>0.03612962258221941</v>
       </c>
       <c r="F17">
-        <v>9.477951531064093</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007768921668673753</v>
+        <v>0.0007863316637826178</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.982807020807769</v>
       </c>
       <c r="J17">
-        <v>0.9685477166207761</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8481672443847259</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2600007033817633</v>
       </c>
       <c r="M17">
-        <v>0.1993185088983331</v>
+        <v>0.6674878743139558</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.038748070084864</v>
+        <v>3.746772894820879</v>
       </c>
       <c r="C18">
-        <v>0.6549951248298953</v>
+        <v>1.376316113469215</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.234497708581543</v>
+        <v>0.03546379848990355</v>
       </c>
       <c r="F18">
-        <v>9.242671983363749</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007797383594735437</v>
+        <v>0.0007891313063112195</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.899432782307258</v>
       </c>
       <c r="J18">
-        <v>0.9441344263186124</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8236531268284324</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2543043041179374</v>
       </c>
       <c r="M18">
-        <v>0.1920255229494892</v>
+        <v>0.6498076119540812</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.0087081877125</v>
+        <v>3.711214989611562</v>
       </c>
       <c r="C19">
-        <v>0.6482268280537653</v>
+        <v>1.362639372154945</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.231996152766996</v>
+        <v>0.03523983504902795</v>
       </c>
       <c r="F19">
-        <v>9.163509121049486</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.0007807020452996846</v>
+        <v>0.000790079755211575</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.871396190061802</v>
       </c>
       <c r="J19">
-        <v>0.9359210499305561</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8154073084366047</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2523875732103846</v>
       </c>
       <c r="M19">
-        <v>0.1895922597640904</v>
+        <v>0.6438554075546392</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.144658181532634</v>
+        <v>3.872024029434556</v>
       </c>
       <c r="C20">
-        <v>0.6788777141234448</v>
+        <v>1.42450024737326</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2433348736325556</v>
+        <v>0.03625357500813919</v>
       </c>
       <c r="F20">
-        <v>9.521740064858534</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007763653588504405</v>
+        <v>0.000785813728074978</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.998331415567378</v>
       </c>
       <c r="J20">
-        <v>0.9730917698461781</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8527307389688588</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2610607953535435</v>
       </c>
       <c r="M20">
-        <v>0.2006858411322838</v>
+        <v>0.6707766633244674</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.616425745430206</v>
+        <v>4.427749950229384</v>
       </c>
       <c r="C21">
-        <v>0.7856504280826755</v>
+        <v>1.638487746208</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2830266438201079</v>
+        <v>0.03977726269698323</v>
       </c>
       <c r="F21">
-        <v>10.7643222042293</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.00076176464564782</v>
+        <v>0.0007714923036944313</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.439648704585949</v>
       </c>
       <c r="J21">
-        <v>1.102112703270592</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9823666384710066</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2911170736507387</v>
       </c>
       <c r="M21">
-        <v>0.2407590742363723</v>
+        <v>0.7638546917104776</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.938055335254489</v>
+        <v>4.804497129257754</v>
       </c>
       <c r="C22">
-        <v>0.8588237489066444</v>
+        <v>1.783791454500147</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3103872273734609</v>
+        <v>0.04218799262231165</v>
       </c>
       <c r="F22">
-        <v>11.61111364797068</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007521589947963545</v>
+        <v>0.0007621079370773521</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.741004675195001</v>
       </c>
       <c r="J22">
-        <v>1.190145188857883</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.070855889008158</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3115501557338831</v>
       </c>
       <c r="M22">
-        <v>0.2694296794276205</v>
+        <v>0.8269818331545693</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.76502791601115</v>
+        <v>4.60203670239332</v>
       </c>
       <c r="C23">
-        <v>0.8194192474612692</v>
+        <v>1.705680153423771</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2956381167349988</v>
+        <v>0.04089005073238106</v>
       </c>
       <c r="F23">
-        <v>11.15559152470706</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.0007572943845552203</v>
+        <v>0.0007671211237379076</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.578851139820358</v>
       </c>
       <c r="J23">
-        <v>1.142776537469587</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.023239918328258</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3005648973349935</v>
       </c>
       <c r="M23">
-        <v>0.2538725924959735</v>
+        <v>0.7930559963630657</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.137140950388357</v>
+        <v>3.863139881417453</v>
       </c>
       <c r="C24">
-        <v>0.6771815565849408</v>
+        <v>1.421082055531315</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2427067352733943</v>
+        <v>0.0361975087826476</v>
       </c>
       <c r="F24">
-        <v>9.501934116564001</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007766035274771452</v>
+        <v>0.0007860478759207844</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.991309314784587</v>
       </c>
       <c r="J24">
-        <v>0.9710364359266634</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.850666586710048</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2605813101749561</v>
       </c>
       <c r="M24">
-        <v>0.2000669972952487</v>
+        <v>0.6692891829459526</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.504066430470345</v>
+        <v>3.111789898598488</v>
       </c>
       <c r="C25">
-        <v>0.5348848449577019</v>
+        <v>1.132184493441798</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1903072968311221</v>
+        <v>0.0314769297846702</v>
       </c>
       <c r="F25">
-        <v>7.832886414325202</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.0007974082661282226</v>
+        <v>0.0008065618845644597</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.401596554443472</v>
       </c>
       <c r="J25">
-        <v>0.7978932405321473</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6769887659685025</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2201858935289494</v>
       </c>
       <c r="M25">
-        <v>0.1503059335563499</v>
+        <v>0.5435780551628397</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_38/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.586481468126806</v>
+        <v>1.741765415654982</v>
       </c>
       <c r="C2">
-        <v>0.9302137343204322</v>
+        <v>0.315201221576018</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02818724510031867</v>
+        <v>0.03682411140076436</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0008219381934229109</v>
+        <v>0.002567512075434409</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.994768545617887</v>
+        <v>2.522390347086386</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1921894337568801</v>
+        <v>0.2346688179144678</v>
       </c>
       <c r="M2">
-        <v>0.4558356405614319</v>
+        <v>0.3657213672982849</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.243324583398021</v>
+        <v>1.669426246988337</v>
       </c>
       <c r="C3">
-        <v>0.798114351885971</v>
+        <v>0.2802518922745776</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02603218981090993</v>
+        <v>0.03611878584069572</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.0008326043382427009</v>
+        <v>0.002573702394190318</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.731871583796433</v>
+        <v>2.454662371584902</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1740599453915621</v>
+        <v>0.2313587299036897</v>
       </c>
       <c r="M3">
-        <v>0.3986198698210046</v>
+        <v>0.3540580275311029</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.037697568961335</v>
+        <v>1.626379214194287</v>
       </c>
       <c r="C4">
-        <v>0.7188284850000741</v>
+        <v>0.2589322668135594</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0247343821530972</v>
+        <v>0.03567722831596054</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008392957415995118</v>
+        <v>0.002577698083355261</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.57557550639234</v>
+        <v>2.413784777052655</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1632757766590203</v>
+        <v>0.2294434660531479</v>
       </c>
       <c r="M4">
-        <v>0.3643872084725572</v>
+        <v>0.3471591268825378</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.955012215488125</v>
+        <v>1.609180134560233</v>
       </c>
       <c r="C5">
-        <v>0.6869073546550339</v>
+        <v>0.250278239534822</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02421043818687707</v>
+        <v>0.03549512543775535</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008420611497646039</v>
+        <v>0.002579375527679803</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.513013099109642</v>
+        <v>2.397301171849634</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1589593837253531</v>
+        <v>0.2286923540941501</v>
       </c>
       <c r="M5">
-        <v>0.3506351968587609</v>
+        <v>0.3444135255197196</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.941344835862083</v>
+        <v>1.606344912034956</v>
       </c>
       <c r="C6">
-        <v>0.681628426423373</v>
+        <v>0.2488432583304814</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02412369538588877</v>
+        <v>0.03546475575603303</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008425227526336619</v>
+        <v>0.002579657041010369</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.502688515318852</v>
+        <v>2.394574506805071</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.158247125606124</v>
+        <v>0.2285694042408366</v>
       </c>
       <c r="M6">
-        <v>0.3483628904883247</v>
+        <v>0.3439615853487581</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.036578161157934</v>
+        <v>1.62614587470938</v>
       </c>
       <c r="C7">
-        <v>0.7183964998501153</v>
+        <v>0.2588154198671759</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02472729794165041</v>
+        <v>0.03567478121818102</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938368969</v>
       </c>
       <c r="G7">
-        <v>0.0008393328770676881</v>
+        <v>0.002577720506516368</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.574727393681911</v>
+        <v>2.413561772214692</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1632172588849556</v>
+        <v>0.2294332174691505</v>
       </c>
       <c r="M7">
-        <v>0.3642009766815661</v>
+        <v>0.347121832798841</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.467002433792914</v>
+        <v>1.716537718865766</v>
       </c>
       <c r="C8">
-        <v>0.8842428019529223</v>
+        <v>0.3031210462149261</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02743797132486936</v>
+        <v>0.03658265725436838</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0008255881173978749</v>
+        <v>0.002569606175233583</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.902957664726685</v>
+        <v>2.498888677896531</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1858605053422977</v>
+        <v>0.2335031341971145</v>
       </c>
       <c r="M8">
-        <v>0.4359036253956248</v>
+        <v>0.3616452300354567</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.359869594979955</v>
+        <v>1.904741616135482</v>
       </c>
       <c r="C9">
-        <v>1.227544518644891</v>
+        <v>0.3911674829723211</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03303186399929636</v>
+        <v>0.03829714036171517</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>0.5661985755042025</v>
       </c>
       <c r="G9">
-        <v>0.0007996206929684736</v>
+        <v>0.002555231354481575</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.595359206144622</v>
+        <v>2.672000130297093</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2334855439032566</v>
+        <v>0.2424182312798564</v>
       </c>
       <c r="M9">
-        <v>0.5850630344176864</v>
+        <v>0.3922209249390178</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.059483343563443</v>
+        <v>2.049818628007188</v>
       </c>
       <c r="C10">
-        <v>1.496643687520361</v>
+        <v>0.456650332556876</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03743839800246818</v>
+        <v>0.03951874133826472</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007809130593925896</v>
+        <v>0.002545595649030523</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.146749587053847</v>
+        <v>2.802960667245316</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2711861891185237</v>
+        <v>0.2495449277952986</v>
       </c>
       <c r="M10">
-        <v>0.70216738617912</v>
+        <v>0.4159838391813366</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.390995541997711</v>
+        <v>2.117325742166315</v>
       </c>
       <c r="C11">
-        <v>1.624323363422491</v>
+        <v>0.4866320641676793</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03954310029383024</v>
+        <v>0.04006668980245109</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007724210003248732</v>
+        <v>0.002541410558638214</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.410339913086517</v>
+        <v>2.863412347724278</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.289125824215219</v>
+        <v>0.2529139922245918</v>
       </c>
       <c r="M11">
-        <v>0.7576970855876795</v>
+        <v>0.4270812858245634</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.518817316131276</v>
+        <v>2.143108395939009</v>
       </c>
       <c r="C12">
-        <v>1.673591307744061</v>
+        <v>0.4980146131021002</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04035820596900308</v>
+        <v>0.04027310404765139</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007692016731300175</v>
+        <v>0.002539854087190813</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.512338589500956</v>
+        <v>2.886434144293332</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2960526099075906</v>
+        <v>0.2542081679857091</v>
       </c>
       <c r="M12">
-        <v>0.7791123344556254</v>
+        <v>0.4313253156086319</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.491180203166095</v>
+        <v>2.137545860997989</v>
       </c>
       <c r="C13">
-        <v>1.662936843985904</v>
+        <v>0.4955618611067507</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04018178638156122</v>
+        <v>0.04022869661162964</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007698952815299604</v>
+        <v>0.002540188044057506</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.490268091596676</v>
+        <v>2.881470141167654</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.294554514824469</v>
+        <v>0.2539286246826435</v>
       </c>
       <c r="M13">
-        <v>0.774481834322323</v>
+        <v>0.4304094295536558</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.401463302340005</v>
+        <v>2.11944249279054</v>
       </c>
       <c r="C14">
-        <v>1.628357232342807</v>
+        <v>0.4875679220606344</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03960977291429657</v>
+        <v>0.0400836931108639</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007721562551640645</v>
+        <v>0.002541281940069525</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.418685455892359</v>
+        <v>2.86530373559566</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.289692894774717</v>
+        <v>0.2530200957659048</v>
       </c>
       <c r="M14">
-        <v>0.7594507700507833</v>
+        <v>0.4274296077873743</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.346819122724924</v>
+        <v>2.10838225815246</v>
       </c>
       <c r="C15">
-        <v>1.607301108500565</v>
+        <v>0.4826752354047699</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03926187779758905</v>
+        <v>0.03999473441196777</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007735405003032228</v>
+        <v>0.002541955667391745</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.375134611553847</v>
+        <v>2.85541839997714</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.286733037161099</v>
+        <v>0.252465992999646</v>
       </c>
       <c r="M15">
-        <v>0.7502962983794887</v>
+        <v>0.4256098167891977</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.038115904624874</v>
+        <v>2.045437443698518</v>
       </c>
       <c r="C16">
-        <v>1.488418618496723</v>
+        <v>0.4546949576536576</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03730316594643668</v>
+        <v>0.03948277832386182</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007814678959567812</v>
+        <v>0.002545873128469984</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.129808539399818</v>
+        <v>2.799027992407673</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2700313061231583</v>
+        <v>0.2493273181489286</v>
       </c>
       <c r="M16">
-        <v>0.6985889451425038</v>
+        <v>0.4152644083440791</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.85238120268798</v>
+        <v>2.007211145061035</v>
       </c>
       <c r="C17">
-        <v>1.416942732035636</v>
+        <v>0.4375803982171647</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03612962258221941</v>
+        <v>0.03916674568984213</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>0.0007863316637826178</v>
+        <v>0.0025483270133507</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.982807020807769</v>
+        <v>2.764661733880615</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2600007033817633</v>
+        <v>0.2474344706712657</v>
       </c>
       <c r="M17">
-        <v>0.6674878743139558</v>
+        <v>0.4089917108642709</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.746772894820879</v>
+        <v>1.985366478879826</v>
       </c>
       <c r="C18">
-        <v>1.376316113469215</v>
+        <v>0.4277546655048923</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03546379848990355</v>
+        <v>0.03898423920187533</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007891313063112195</v>
+        <v>0.002549757092843899</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.899432782307258</v>
+        <v>2.744977488359865</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2543043041179374</v>
+        <v>0.2463577109360529</v>
       </c>
       <c r="M18">
-        <v>0.6498076119540812</v>
+        <v>0.4054108698657046</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.711214989611562</v>
+        <v>1.977994597092561</v>
       </c>
       <c r="C19">
-        <v>1.362639372154945</v>
+        <v>0.4244309114408225</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03523983504902795</v>
+        <v>0.03892231872682395</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>0.000790079755211575</v>
+        <v>0.002550244504981647</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.871396190061802</v>
+        <v>2.738326759745377</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2523875732103846</v>
+        <v>0.2459951888141916</v>
       </c>
       <c r="M19">
-        <v>0.6438554075546392</v>
+        <v>0.4042030948794135</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.872024029434556</v>
+        <v>2.011265680413828</v>
       </c>
       <c r="C20">
-        <v>1.42450024737326</v>
+        <v>0.4394003885055326</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03625357500813919</v>
+        <v>0.03920046350492967</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.6429339538360921</v>
       </c>
       <c r="G20">
-        <v>0.000785813728074978</v>
+        <v>0.002548063862054053</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.998331415567378</v>
+        <v>2.768311532824868</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2610607953535435</v>
+        <v>0.2476347293353456</v>
       </c>
       <c r="M20">
-        <v>0.6707766633244674</v>
+        <v>0.4096566485440718</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.427749950229384</v>
+        <v>2.124753926896631</v>
       </c>
       <c r="C21">
-        <v>1.638487746208</v>
+        <v>0.4899151347823931</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03977726269698323</v>
+        <v>0.04012631324004268</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>0.0007714923036944313</v>
+        <v>0.002540959868646907</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.439648704585949</v>
+        <v>2.870048639563151</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2911170736507387</v>
+        <v>0.2532864529127892</v>
       </c>
       <c r="M21">
-        <v>0.7638546917104776</v>
+        <v>0.4283037202635285</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.804497129257754</v>
+        <v>2.200203515533588</v>
       </c>
       <c r="C22">
-        <v>1.783791454500147</v>
+        <v>0.5230997963093955</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04218799262231165</v>
+        <v>0.04072511955859248</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007621079370773521</v>
+        <v>0.002536482054163125</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.741004675195001</v>
+        <v>2.937299641339564</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3115501557338831</v>
+        <v>0.2570873905531528</v>
       </c>
       <c r="M22">
-        <v>0.8269818331545693</v>
+        <v>0.4407336843124838</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.60203670239332</v>
+        <v>2.159817019110392</v>
       </c>
       <c r="C23">
-        <v>1.705680153423771</v>
+        <v>0.5053724854143979</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04089005073238106</v>
+        <v>0.040406089350709</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>0.7472568307916134</v>
       </c>
       <c r="G23">
-        <v>0.0007671211237379076</v>
+        <v>0.002538856903442086</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.578851139820358</v>
+        <v>2.901335674843921</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3005648973349935</v>
+        <v>0.2550489123423318</v>
       </c>
       <c r="M23">
-        <v>0.7930559963630657</v>
+        <v>0.434077234923933</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.863139881417453</v>
+        <v>2.00943221353117</v>
       </c>
       <c r="C24">
-        <v>1.421082055531315</v>
+        <v>0.4385775284625879</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0361975087826476</v>
+        <v>0.03918522222221377</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007860478759207844</v>
+        <v>0.002548182772575586</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.991309314784587</v>
+        <v>2.766661230474853</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2605813101749561</v>
+        <v>0.247544156695227</v>
       </c>
       <c r="M24">
-        <v>0.6692891829459526</v>
+        <v>0.4093559510764138</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.111789898598488</v>
+        <v>1.852642386014224</v>
       </c>
       <c r="C25">
-        <v>1.132184493441798</v>
+        <v>0.367215246460205</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0314769297846702</v>
+        <v>0.0378401605944596</v>
       </c>
       <c r="F25">
-        <v>1.757113814925091</v>
+        <v>0.5279251897347308</v>
       </c>
       <c r="G25">
-        <v>0.0008065618845644597</v>
+        <v>0.002558956754530868</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.401596554443472</v>
+        <v>2.624523911064102</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2201858935289494</v>
+        <v>0.2399057176902488</v>
       </c>
       <c r="M25">
-        <v>0.5435780551628397</v>
+        <v>0.3837228774861359</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_38/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.741765415654982</v>
+        <v>2.586481468126749</v>
       </c>
       <c r="C2">
-        <v>0.315201221576018</v>
+        <v>0.9302137343206311</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03682411140076436</v>
+        <v>0.02818724510033377</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002567512075434409</v>
+        <v>0.0008219381934157906</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.522390347086386</v>
+        <v>2.994768545617944</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2346688179144678</v>
+        <v>0.1921894337569157</v>
       </c>
       <c r="M2">
-        <v>0.3657213672982849</v>
+        <v>0.4558356405614603</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.669426246988337</v>
+        <v>2.243324583398135</v>
       </c>
       <c r="C3">
-        <v>0.2802518922745776</v>
+        <v>0.798114351885971</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03611878584069572</v>
+        <v>0.02603218981089928</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002573702394190318</v>
+        <v>0.0008326043382726518</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.454662371584902</v>
+        <v>2.731871583796448</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2313587299036897</v>
+        <v>0.1740599453915763</v>
       </c>
       <c r="M3">
-        <v>0.3540580275311029</v>
+        <v>0.3986198698210117</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.626379214194287</v>
+        <v>2.037697568961391</v>
       </c>
       <c r="C4">
-        <v>0.2589322668135594</v>
+        <v>0.7188284850000457</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03567722831596054</v>
+        <v>0.02473438215307677</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002577698083355261</v>
+        <v>0.0008392957416059101</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.413784777052655</v>
+        <v>2.57557550639234</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2294434660531479</v>
+        <v>0.1632757766589563</v>
       </c>
       <c r="M4">
-        <v>0.3471591268825378</v>
+        <v>0.3643872084725572</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.609180134560233</v>
+        <v>1.955012215488125</v>
       </c>
       <c r="C5">
-        <v>0.250278239534822</v>
+        <v>0.6869073546550055</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03549512543775535</v>
+        <v>0.02421043818696766</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002579375527679803</v>
+        <v>0.0008420611497632624</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.397301171849634</v>
+        <v>2.513013099109699</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2286923540941501</v>
+        <v>0.1589593837255094</v>
       </c>
       <c r="M5">
-        <v>0.3444135255197196</v>
+        <v>0.3506351968587609</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.606344912034956</v>
+        <v>1.941344835862253</v>
       </c>
       <c r="C6">
-        <v>0.2488432583304814</v>
+        <v>0.6816284264233445</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03546475575603303</v>
+        <v>0.02412369538583725</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002579657041010369</v>
+        <v>0.000842522752638902</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.394574506805071</v>
+        <v>2.502688515318866</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2285694042408366</v>
+        <v>0.1582471256062163</v>
       </c>
       <c r="M6">
-        <v>0.3439615853487581</v>
+        <v>0.3483628904883247</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.62614587470938</v>
+        <v>2.036578161157877</v>
       </c>
       <c r="C7">
-        <v>0.2588154198671759</v>
+        <v>0.7183964998500585</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03567478121818102</v>
+        <v>0.02472729794168949</v>
       </c>
       <c r="F7">
-        <v>0.3529483938368969</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002577720506516368</v>
+        <v>0.0008393328769818345</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.413561772214692</v>
+        <v>2.574727393681925</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2294332174691505</v>
+        <v>0.1632172588848775</v>
       </c>
       <c r="M7">
-        <v>0.347121832798841</v>
+        <v>0.3642009766815519</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.716537718865766</v>
+        <v>2.467002433793084</v>
       </c>
       <c r="C8">
-        <v>0.3031210462149261</v>
+        <v>0.8842428019526949</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03658265725436838</v>
+        <v>0.02743797132486758</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002569606175233583</v>
+        <v>0.0008255881173511379</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.498888677896531</v>
+        <v>2.902957664726685</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2335031341971145</v>
+        <v>0.1858605053421627</v>
       </c>
       <c r="M8">
-        <v>0.3616452300354567</v>
+        <v>0.4359036253956248</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.904741616135482</v>
+        <v>3.359869594979898</v>
       </c>
       <c r="C9">
-        <v>0.3911674829723211</v>
+        <v>1.227544518644379</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03829714036171517</v>
+        <v>0.03303186399939229</v>
       </c>
       <c r="F9">
-        <v>0.5661985755042025</v>
+        <v>1.895061171845327</v>
       </c>
       <c r="G9">
-        <v>0.002555231354481575</v>
+        <v>0.000799620693027669</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.672000130297093</v>
+        <v>3.595359206144636</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2424182312798564</v>
+        <v>0.2334855439032424</v>
       </c>
       <c r="M9">
-        <v>0.3922209249390178</v>
+        <v>0.5850630344176935</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.049818628007188</v>
+        <v>4.0594833435635</v>
       </c>
       <c r="C10">
-        <v>0.456650332556876</v>
+        <v>1.496643687519907</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03951874133826472</v>
+        <v>0.0374383980024362</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.002545595649030523</v>
+        <v>0.0007809130594361497</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.802960667245316</v>
+        <v>4.146749587053989</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2495449277952986</v>
+        <v>0.2711861891185663</v>
       </c>
       <c r="M10">
-        <v>0.4159838391813366</v>
+        <v>0.7021673861790987</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.117325742166315</v>
+        <v>4.390995541997825</v>
       </c>
       <c r="C11">
-        <v>0.4866320641676793</v>
+        <v>1.624323363422889</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04006668980245109</v>
+        <v>0.03954310029381247</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639217</v>
       </c>
       <c r="G11">
-        <v>0.002541410558638214</v>
+        <v>0.0007724210000903991</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.863412347724278</v>
+        <v>4.410339913086631</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2529139922245918</v>
+        <v>0.2891258242152617</v>
       </c>
       <c r="M11">
-        <v>0.4270812858245634</v>
+        <v>0.757697085587715</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.143108395939009</v>
+        <v>4.518817316131219</v>
       </c>
       <c r="C12">
-        <v>0.4980146131021002</v>
+        <v>1.673591307743322</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04027310404765139</v>
+        <v>0.04035820596895867</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.002539854087190813</v>
+        <v>0.0007692016732345582</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.886434144293332</v>
+        <v>4.512338589500899</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2542081679857091</v>
+        <v>0.2960526099075054</v>
       </c>
       <c r="M12">
-        <v>0.4313253156086319</v>
+        <v>0.7791123344556752</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.137545860997989</v>
+        <v>4.491180203166152</v>
       </c>
       <c r="C13">
-        <v>0.4955618611067507</v>
+        <v>1.662936843986245</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04022869661162964</v>
+        <v>0.04018178638157544</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.002540188044057506</v>
+        <v>0.0007698952815234973</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.881470141167654</v>
+        <v>4.490268091596732</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2539286246826435</v>
+        <v>0.2945545148242985</v>
       </c>
       <c r="M13">
-        <v>0.4304094295536558</v>
+        <v>0.7744818343223514</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.11944249279054</v>
+        <v>4.401463302340005</v>
       </c>
       <c r="C14">
-        <v>0.4875679220606344</v>
+        <v>1.628357232342807</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0400836931108639</v>
+        <v>0.03960977291427348</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002541281940069525</v>
+        <v>0.0007721562549530461</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.86530373559566</v>
+        <v>4.418685455892359</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2530200957659048</v>
+        <v>0.2896928947746744</v>
       </c>
       <c r="M14">
-        <v>0.4274296077873743</v>
+        <v>0.7594507700507904</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.10838225815246</v>
+        <v>4.346819122725094</v>
       </c>
       <c r="C15">
-        <v>0.4826752354047699</v>
+        <v>1.607301108500508</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03999473441196777</v>
+        <v>0.0392618777976228</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.002541955667391745</v>
+        <v>0.0007735405004084719</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.85541839997714</v>
+        <v>4.37513461155396</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.252465992999646</v>
+        <v>0.2867330371609143</v>
       </c>
       <c r="M15">
-        <v>0.4256098167891977</v>
+        <v>0.7502962983795314</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.045437443698518</v>
+        <v>4.038115904625329</v>
       </c>
       <c r="C16">
-        <v>0.4546949576536576</v>
+        <v>1.488418618496553</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03948277832386182</v>
+        <v>0.03730316594645444</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002545873128469984</v>
+        <v>0.0007814678959134848</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.799027992407673</v>
+        <v>4.129808539399733</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2493273181489286</v>
+        <v>0.2700313061231299</v>
       </c>
       <c r="M16">
-        <v>0.4152644083440791</v>
+        <v>0.6985889451424967</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.007211145061035</v>
+        <v>3.85238120268815</v>
       </c>
       <c r="C17">
-        <v>0.4375803982171647</v>
+        <v>1.416942732036034</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03916674568984213</v>
+        <v>0.0361296225822656</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0025483270133507</v>
+        <v>0.0007863316639773422</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.764661733880615</v>
+        <v>3.982807020807854</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2474344706712657</v>
+        <v>0.2600007033817064</v>
       </c>
       <c r="M17">
-        <v>0.4089917108642709</v>
+        <v>0.6674878743139843</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.985366478879826</v>
+        <v>3.746772894820992</v>
       </c>
       <c r="C18">
-        <v>0.4277546655048923</v>
+        <v>1.376316113469215</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03898423920187533</v>
+        <v>0.03546379848988046</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.002549757092843899</v>
+        <v>0.0007891313063660725</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.744977488359865</v>
+        <v>3.899432782307287</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2463577109360529</v>
+        <v>0.2543043041177384</v>
       </c>
       <c r="M18">
-        <v>0.4054108698657046</v>
+        <v>0.6498076119540741</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.977994597092561</v>
+        <v>3.711214989611676</v>
       </c>
       <c r="C19">
-        <v>0.4244309114408225</v>
+        <v>1.362639372154888</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03892231872682395</v>
+        <v>0.03523983504912565</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.002550244504981647</v>
+        <v>0.0007900797552950615</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.738326759745377</v>
+        <v>3.87139619006183</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2459951888141916</v>
+        <v>0.2523875732103562</v>
       </c>
       <c r="M19">
-        <v>0.4042030948794135</v>
+        <v>0.6438554075546463</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.011265680413828</v>
+        <v>3.872024029434556</v>
       </c>
       <c r="C20">
-        <v>0.4394003885055326</v>
+        <v>1.42450024737326</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03920046350492967</v>
+        <v>0.0362535750081534</v>
       </c>
       <c r="F20">
-        <v>0.6429339538360921</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002548063862054053</v>
+        <v>0.0007858137282774128</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.768311532824868</v>
+        <v>3.998331415567407</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2476347293353456</v>
+        <v>0.2610607953534725</v>
       </c>
       <c r="M20">
-        <v>0.4096566485440718</v>
+        <v>0.6707766633244887</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.124753926896631</v>
+        <v>4.427749950229156</v>
       </c>
       <c r="C21">
-        <v>0.4899151347823931</v>
+        <v>1.638487746207034</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04012631324004268</v>
+        <v>0.03977726269689619</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002540959868646907</v>
+        <v>0.000771492303913165</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.870048639563151</v>
+        <v>4.439648704585949</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2532864529127892</v>
+        <v>0.2911170736506961</v>
       </c>
       <c r="M21">
-        <v>0.4283037202635285</v>
+        <v>0.7638546917104705</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.200203515533588</v>
+        <v>4.804497129257754</v>
       </c>
       <c r="C22">
-        <v>0.5230997963093955</v>
+        <v>1.783791454499749</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04072511955859248</v>
+        <v>0.04218799262228501</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.002536482054163125</v>
+        <v>0.0007621079371845531</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.937299641339564</v>
+        <v>4.741004675195029</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2570873905531528</v>
+        <v>0.3115501557339257</v>
       </c>
       <c r="M22">
-        <v>0.4407336843124838</v>
+        <v>0.8269818331545764</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.159817019110392</v>
+        <v>4.602036702393264</v>
       </c>
       <c r="C23">
-        <v>0.5053724854143979</v>
+        <v>1.705680153423884</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.040406089350709</v>
+        <v>0.04089005073237573</v>
       </c>
       <c r="F23">
-        <v>0.7472568307916134</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.002538856903442086</v>
+        <v>0.0007671211236218923</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.901335674843921</v>
+        <v>4.578851139820443</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2550489123423318</v>
+        <v>0.3005648973348372</v>
       </c>
       <c r="M23">
-        <v>0.434077234923933</v>
+        <v>0.7930559963630586</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.00943221353117</v>
+        <v>3.863139881417283</v>
       </c>
       <c r="C24">
-        <v>0.4385775284625879</v>
+        <v>1.421082055531315</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03918522222221377</v>
+        <v>0.03619750878265471</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002548182772575586</v>
+        <v>0.0007860478757849022</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.766661230474853</v>
+        <v>3.991309314784587</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.247544156695227</v>
+        <v>0.2605813101748709</v>
       </c>
       <c r="M24">
-        <v>0.4093559510764138</v>
+        <v>0.6692891829459526</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.852642386014224</v>
+        <v>3.111789898598659</v>
       </c>
       <c r="C25">
-        <v>0.367215246460205</v>
+        <v>1.132184493441628</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0378401605944596</v>
+        <v>0.03147692978460981</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347308</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>0.002558956754530868</v>
+        <v>0.0008065618845245481</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.624523911064102</v>
+        <v>3.401596554443501</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2399057176902488</v>
+        <v>0.2201858935287504</v>
       </c>
       <c r="M25">
-        <v>0.3837228774861359</v>
+        <v>0.5435780551628255</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.586481468126749</v>
+        <v>0.7374247160743437</v>
       </c>
       <c r="C2">
-        <v>0.9302137343206311</v>
+        <v>0.1482671449722659</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02818724510033377</v>
+        <v>0.350644075718634</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>1.782403525116237</v>
       </c>
       <c r="G2">
-        <v>0.0008219381934157906</v>
+        <v>0.6722493291250515</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.003774470062142266</v>
       </c>
       <c r="I2">
-        <v>2.994768545617944</v>
+        <v>0.006077588339412188</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5160675528947536</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4950905298140427</v>
       </c>
       <c r="L2">
-        <v>0.1921894337569157</v>
+        <v>0.0524303496721894</v>
       </c>
       <c r="M2">
-        <v>0.4558356405614603</v>
+        <v>0.8447775960024444</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.5737863442586857</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.243324583398135</v>
+        <v>0.6423515645661269</v>
       </c>
       <c r="C3">
-        <v>0.798114351885971</v>
+        <v>0.129045027555307</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02603218981089928</v>
+        <v>0.308473384934544</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.642529203072854</v>
       </c>
       <c r="G3">
-        <v>0.0008326043382726518</v>
+        <v>0.649465795534752</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.006021384334060187</v>
       </c>
       <c r="I3">
-        <v>2.731871583796448</v>
+        <v>0.008357751683629289</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5105706393162137</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4910589182909959</v>
       </c>
       <c r="L3">
-        <v>0.1740599453915763</v>
+        <v>0.04986483061534619</v>
       </c>
       <c r="M3">
-        <v>0.3986198698210117</v>
+        <v>0.7359654530770428</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.5002630197071483</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.037697568961391</v>
+        <v>0.5838069793983323</v>
       </c>
       <c r="C4">
-        <v>0.7188284850000457</v>
+        <v>0.1174423697247562</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02473438215307677</v>
+        <v>0.2827134995063076</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>1.557124457896492</v>
       </c>
       <c r="G4">
-        <v>0.0008392957416059101</v>
+        <v>0.6357730269206883</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.007722443724287875</v>
       </c>
       <c r="I4">
-        <v>2.57557550639234</v>
+        <v>0.01003645115177321</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5074121521753625</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4886968550482926</v>
       </c>
       <c r="L4">
-        <v>0.1632757766589563</v>
+        <v>0.04824334654327256</v>
       </c>
       <c r="M4">
-        <v>0.3643872084725572</v>
+        <v>0.6692544861928837</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4553021477082808</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.955012215488125</v>
+        <v>0.5595795993924355</v>
       </c>
       <c r="C5">
-        <v>0.6869073546550055</v>
+        <v>0.1130891011711981</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02421043818696766</v>
+        <v>0.2725767059483388</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.521237762739474</v>
       </c>
       <c r="G5">
-        <v>0.0008420611497632624</v>
+        <v>0.6290279151669438</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.008495371825618908</v>
       </c>
       <c r="I5">
-        <v>2.513013099109699</v>
+        <v>0.01087351115285085</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5055341056410327</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4869133076889405</v>
       </c>
       <c r="L5">
-        <v>0.1589593837255094</v>
+        <v>0.04754415309463744</v>
       </c>
       <c r="M5">
-        <v>0.3506351968587609</v>
+        <v>0.6422868818897172</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4374044424236629</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.941344835862253</v>
+        <v>0.5551578667314061</v>
       </c>
       <c r="C6">
-        <v>0.6816284264233445</v>
+        <v>0.1127730007525685</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02412369538583725</v>
+        <v>0.2713010833757181</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.513830447719982</v>
       </c>
       <c r="G6">
-        <v>0.000842522752638902</v>
+        <v>0.6264062033232562</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.008631169326963367</v>
       </c>
       <c r="I6">
-        <v>2.502688515318866</v>
+        <v>0.01112878653047922</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5044406043650582</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4855850787738163</v>
       </c>
       <c r="L6">
-        <v>0.1582471256062163</v>
+        <v>0.04739540679137333</v>
       </c>
       <c r="M6">
-        <v>0.3483628904883247</v>
+        <v>0.6380559501199485</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4349056976391026</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.036578161157877</v>
+        <v>0.5823951089676314</v>
       </c>
       <c r="C7">
-        <v>0.7183964998500585</v>
+        <v>0.1184888031072973</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02472729794168949</v>
+        <v>0.2836870549797368</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.552667307852673</v>
       </c>
       <c r="G7">
-        <v>0.0008393328769818345</v>
+        <v>0.6315700391241847</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.007739818416235056</v>
       </c>
       <c r="I7">
-        <v>2.574727393681925</v>
+        <v>0.01033675925172339</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5052465106137305</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4858515589235139</v>
       </c>
       <c r="L7">
-        <v>0.1632172588848775</v>
+        <v>0.04814678988120158</v>
       </c>
       <c r="M7">
-        <v>0.3642009766815519</v>
+        <v>0.6695646477742656</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4563493165982209</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.467002433793084</v>
+        <v>0.7032230907896917</v>
       </c>
       <c r="C8">
-        <v>0.8842428019526949</v>
+        <v>0.1430691188596427</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02743797132486758</v>
+        <v>0.3375520570756905</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.728808441499837</v>
       </c>
       <c r="G8">
-        <v>0.0008255881173511379</v>
+        <v>0.6589035321962342</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.004487300060355692</v>
       </c>
       <c r="I8">
-        <v>2.902957664726685</v>
+        <v>0.007148038810018242</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5113134318907839</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4899644459302195</v>
       </c>
       <c r="L8">
-        <v>0.1858605053421627</v>
+        <v>0.05144071341537249</v>
       </c>
       <c r="M8">
-        <v>0.4359036253956248</v>
+        <v>0.8081307027084677</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.5501112105935135</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.359869594979898</v>
+        <v>0.9410000903797027</v>
       </c>
       <c r="C9">
-        <v>1.227544518644379</v>
+        <v>0.1910789337988206</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03303186399939229</v>
+        <v>0.4424324379961462</v>
       </c>
       <c r="F9">
-        <v>1.895061171845327</v>
+        <v>2.085858339851185</v>
       </c>
       <c r="G9">
-        <v>0.000799620693027669</v>
+        <v>0.7225089955974653</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0008137960214549267</v>
       </c>
       <c r="I9">
-        <v>3.595359206144636</v>
+        <v>0.00281681776097642</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5288598285818722</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.504046361925468</v>
       </c>
       <c r="L9">
-        <v>0.2334855439032424</v>
+        <v>0.05770822858277347</v>
       </c>
       <c r="M9">
-        <v>0.5850630344176935</v>
+        <v>1.079858570498857</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.7333991148610366</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.0594833435635</v>
+        <v>1.118552208830238</v>
       </c>
       <c r="C10">
-        <v>1.496643687519907</v>
+        <v>0.2276286083305337</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0374383980024362</v>
+        <v>0.5031480228487055</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.303456509457206</v>
       </c>
       <c r="G10">
-        <v>0.0007809130594361497</v>
+        <v>0.7555389630539366</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0002004891603388792</v>
       </c>
       <c r="I10">
-        <v>4.146749587053989</v>
+        <v>0.001434046596399341</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5350340415860728</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.5059051274813129</v>
       </c>
       <c r="L10">
-        <v>0.2711861891185663</v>
+        <v>0.06146330052283155</v>
       </c>
       <c r="M10">
-        <v>0.7021673861790987</v>
+        <v>1.283501885107626</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.8539997280518108</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.390995541997825</v>
+        <v>1.23146997539493</v>
       </c>
       <c r="C11">
-        <v>1.624323363422889</v>
+        <v>0.2402477870726898</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03954310029381247</v>
+        <v>0.3875691155078016</v>
       </c>
       <c r="F11">
-        <v>2.451628164639217</v>
+        <v>2.007044674648242</v>
       </c>
       <c r="G11">
-        <v>0.0007724210000903991</v>
+        <v>0.6502314095462367</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01878224869216183</v>
       </c>
       <c r="I11">
-        <v>4.410339913086631</v>
+        <v>0.001702529511674378</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.476545157692442</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.4380535181188812</v>
       </c>
       <c r="L11">
-        <v>0.2891258242152617</v>
+        <v>0.06529362681004791</v>
       </c>
       <c r="M11">
-        <v>0.757697085587715</v>
+        <v>1.39824454996554</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.7737258797838891</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.518817316131219</v>
+        <v>1.292712343734109</v>
       </c>
       <c r="C12">
-        <v>1.673591307743322</v>
+        <v>0.2411854090144345</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04035820596895867</v>
+        <v>0.2901372720125437</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>1.735050808000523</v>
       </c>
       <c r="G12">
-        <v>0.0007692016732345582</v>
+        <v>0.5663974074692959</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05751497920077497</v>
       </c>
       <c r="I12">
-        <v>4.512338589500899</v>
+        <v>0.001652512737765122</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4317582265732085</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3888718386332037</v>
       </c>
       <c r="L12">
-        <v>0.2960526099075054</v>
+        <v>0.0779794797623552</v>
       </c>
       <c r="M12">
-        <v>0.7791123344556752</v>
+        <v>1.451808297415738</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.6828669736983954</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.491180203166152</v>
+        <v>1.315333640866925</v>
       </c>
       <c r="C13">
-        <v>1.662936843986245</v>
+        <v>0.2349146566620561</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04018178638157544</v>
+        <v>0.2032077499195495</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>1.461020591508685</v>
       </c>
       <c r="G13">
-        <v>0.0007698952815234973</v>
+        <v>0.4877229827557272</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1134156332902307</v>
       </c>
       <c r="I13">
-        <v>4.490268091596732</v>
+        <v>0.001694749086382785</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3914910632078374</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3466880594751096</v>
       </c>
       <c r="L13">
-        <v>0.2945545148242985</v>
+        <v>0.09776783993832083</v>
       </c>
       <c r="M13">
-        <v>0.7744818343223514</v>
+        <v>1.461869468054061</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5813503540599783</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.401463302340005</v>
+        <v>1.313270173323815</v>
       </c>
       <c r="C14">
-        <v>1.628357232342807</v>
+        <v>0.2276472052133443</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03960977291427348</v>
+        <v>0.1497633529719096</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>1.27151147955648</v>
       </c>
       <c r="G14">
-        <v>0.0007721562549530461</v>
+        <v>0.4352203884023425</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1629456365875654</v>
       </c>
       <c r="I14">
-        <v>4.418685455892359</v>
+        <v>0.001871871056126295</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3653888826570721</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3204419914489343</v>
       </c>
       <c r="L14">
-        <v>0.2896928947746744</v>
+        <v>0.1160260214088353</v>
       </c>
       <c r="M14">
-        <v>0.7594507700507904</v>
+        <v>1.449416012912138</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.5071285131708052</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.346819122725094</v>
+        <v>1.30375117378378</v>
       </c>
       <c r="C15">
-        <v>1.607301108500508</v>
+        <v>0.2248222125432733</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0392618777976228</v>
+        <v>0.1374216640423533</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>1.221944912949112</v>
       </c>
       <c r="G15">
-        <v>0.0007735405004084719</v>
+        <v>0.4217956108727918</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1755415596026069</v>
       </c>
       <c r="I15">
-        <v>4.37513461155396</v>
+        <v>0.002070831957649233</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3591173400246106</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3143584638608168</v>
       </c>
       <c r="L15">
-        <v>0.2867330371609143</v>
+        <v>0.1207416739811649</v>
       </c>
       <c r="M15">
-        <v>0.7502962983795314</v>
+        <v>1.43724237085047</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.4867940963516304</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.038115904625329</v>
+        <v>1.220686119856765</v>
       </c>
       <c r="C16">
-        <v>1.488418618496553</v>
+        <v>0.2110285024459273</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03730316594645444</v>
+        <v>0.1321724209356034</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>1.188383491673477</v>
       </c>
       <c r="G16">
-        <v>0.0007814678959134848</v>
+        <v>0.4219477671537817</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1632455244074151</v>
       </c>
       <c r="I16">
-        <v>4.129808539399733</v>
+        <v>0.002664714721629657</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3635166994120098</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3206864836134713</v>
       </c>
       <c r="L16">
-        <v>0.2700313061231299</v>
+        <v>0.1145567860227317</v>
       </c>
       <c r="M16">
-        <v>0.6985889451424967</v>
+        <v>1.346883181109376</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4594212626946828</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.85238120268815</v>
+        <v>1.158268876648862</v>
       </c>
       <c r="C17">
-        <v>1.416942732036034</v>
+        <v>0.2043927853637939</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.0361296225822656</v>
+        <v>0.1548561455264164</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>1.260466541283307</v>
       </c>
       <c r="G17">
-        <v>0.0007863316639773422</v>
+        <v>0.4492178175638486</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1257042142567997</v>
       </c>
       <c r="I17">
-        <v>3.982807020807854</v>
+        <v>0.003087758137374053</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3804654909962295</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3390176018041302</v>
       </c>
       <c r="L17">
-        <v>0.2600007033817064</v>
+        <v>0.09933789522032299</v>
       </c>
       <c r="M17">
-        <v>0.6674878743139843</v>
+        <v>1.284477005833622</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.476965879913152</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.746772894820992</v>
+        <v>1.10796644383035</v>
       </c>
       <c r="C18">
-        <v>1.376316113469215</v>
+        <v>0.2020980754353019</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03546379848988046</v>
+        <v>0.2110428408948266</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>1.444063087927432</v>
       </c>
       <c r="G18">
-        <v>0.0007891313063660725</v>
+        <v>0.5084956579123343</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07281428152514025</v>
       </c>
       <c r="I18">
-        <v>3.899432782307287</v>
+        <v>0.003007579864554799</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4128880275310962</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3735635196134552</v>
       </c>
       <c r="L18">
-        <v>0.2543043041177384</v>
+        <v>0.0791576594878407</v>
       </c>
       <c r="M18">
-        <v>0.6498076119540741</v>
+        <v>1.238502348023786</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.5368604403676471</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.711214989611676</v>
+        <v>1.069442035472235</v>
       </c>
       <c r="C19">
-        <v>1.362639372154888</v>
+        <v>0.2055908618815891</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03523983504912565</v>
+        <v>0.3031364943589168</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>1.714794804004114</v>
       </c>
       <c r="G19">
-        <v>0.0007900797552950615</v>
+        <v>0.5884504524828458</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02718609112982051</v>
       </c>
       <c r="I19">
-        <v>3.87139619006183</v>
+        <v>0.003059394297077134</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.454719001227545</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.4183915917165848</v>
       </c>
       <c r="L19">
-        <v>0.2523875732103562</v>
+        <v>0.06384546041499917</v>
       </c>
       <c r="M19">
-        <v>0.6438554075546463</v>
+        <v>1.210748804553958</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.6331578000130733</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.872024029434556</v>
+        <v>1.068577739175026</v>
       </c>
       <c r="C20">
-        <v>1.42450024737326</v>
+        <v>0.2214536426991458</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0362535750081534</v>
+        <v>0.4898907211402488</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>2.231826223603491</v>
       </c>
       <c r="G20">
-        <v>0.0007858137282774128</v>
+        <v>0.7335941972250311</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0002230760995289849</v>
       </c>
       <c r="I20">
-        <v>3.998331415567407</v>
+        <v>0.002509438914153783</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5265662299994887</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4965331291265258</v>
       </c>
       <c r="L20">
-        <v>0.2610607953534725</v>
+        <v>0.06022449493506277</v>
       </c>
       <c r="M20">
-        <v>0.6707766633244887</v>
+        <v>1.232151135206635</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.825662721222308</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.427749950229156</v>
+        <v>1.199684749489734</v>
       </c>
       <c r="C21">
-        <v>1.638487746207034</v>
+        <v>0.2503963108834313</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03977726269689619</v>
+        <v>0.5639435043544694</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>2.474950546703695</v>
       </c>
       <c r="G21">
-        <v>0.000771492303913165</v>
+        <v>0.783796121294543</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0001236480339059653</v>
       </c>
       <c r="I21">
-        <v>4.439648704585949</v>
+        <v>0.001809460026137799</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5440483920178849</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.512306718086748</v>
       </c>
       <c r="L21">
-        <v>0.2911170736506961</v>
+        <v>0.06406008981239775</v>
       </c>
       <c r="M21">
-        <v>0.7638546917104705</v>
+        <v>1.385043455847324</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.9430169647208189</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.804497129257754</v>
+        <v>1.288802185931928</v>
       </c>
       <c r="C22">
-        <v>1.783791454499749</v>
+        <v>0.2678315666786375</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04218799262228501</v>
+        <v>0.6019897830341705</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.616404754226053</v>
       </c>
       <c r="G22">
-        <v>0.0007621079371845531</v>
+        <v>0.815390830568461</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0005747064789387579</v>
       </c>
       <c r="I22">
-        <v>4.741004675195029</v>
+        <v>0.001410279344367105</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.5549082654062545</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.522354235561842</v>
       </c>
       <c r="L22">
-        <v>0.3115501557339257</v>
+        <v>0.06634748748588759</v>
       </c>
       <c r="M22">
-        <v>0.8269818331545764</v>
+        <v>1.485707475432832</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.010163204338696</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.602036702393264</v>
+        <v>1.242568353092196</v>
       </c>
       <c r="C23">
-        <v>1.705680153423884</v>
+        <v>0.2571365480122125</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04089005073237573</v>
+        <v>0.5803107586253802</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>2.545485638582633</v>
       </c>
       <c r="G23">
-        <v>0.0007671211236218923</v>
+        <v>0.803227217581707</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0002949715248106166</v>
       </c>
       <c r="I23">
-        <v>4.578851139820443</v>
+        <v>0.001278170553463021</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.5515217349309012</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.520188634086459</v>
       </c>
       <c r="L23">
-        <v>0.3005648973348372</v>
+        <v>0.06522712049553825</v>
       </c>
       <c r="M23">
-        <v>0.7930559963630586</v>
+        <v>1.431122288622674</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.9727215848598618</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.863139881417283</v>
+        <v>1.065494499036419</v>
       </c>
       <c r="C24">
-        <v>1.421082055531315</v>
+        <v>0.2194703186348903</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03619750878265471</v>
+        <v>0.5008689012727743</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.271830556386462</v>
       </c>
       <c r="G24">
-        <v>0.0007860478757849022</v>
+        <v>0.7509474404375283</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.37183562492072E-05</v>
       </c>
       <c r="I24">
-        <v>3.991309314784587</v>
+        <v>0.001993023624545565</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5355717781485509</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.5074298228394483</v>
       </c>
       <c r="L24">
-        <v>0.2605813101748709</v>
+        <v>0.0607842197358881</v>
       </c>
       <c r="M24">
-        <v>0.6692891829459526</v>
+        <v>1.226601160819655</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.8341933781049633</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.111789898598659</v>
+        <v>0.8747526129593837</v>
       </c>
       <c r="C25">
-        <v>1.132184493441628</v>
+        <v>0.1799070032256083</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03147692978460981</v>
+        <v>0.4159349716247362</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.981491890932929</v>
       </c>
       <c r="G25">
-        <v>0.0008065618845245481</v>
+        <v>0.6976105090444236</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001498487995936326</v>
       </c>
       <c r="I25">
-        <v>3.401596554443501</v>
+        <v>0.004185758950447038</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5200968469823408</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.4951042358438471</v>
       </c>
       <c r="L25">
-        <v>0.2201858935287504</v>
+        <v>0.05589381503060298</v>
       </c>
       <c r="M25">
-        <v>0.5435780551628255</v>
+        <v>1.007390933050345</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0.6859521542908027</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7374247160743437</v>
+        <v>0.7246394109443202</v>
       </c>
       <c r="C2">
-        <v>0.1482671449722659</v>
+        <v>0.1673757928024031</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.350644075718634</v>
+        <v>0.380366821188673</v>
       </c>
       <c r="F2">
-        <v>1.782403525116237</v>
+        <v>1.690877785635848</v>
       </c>
       <c r="G2">
-        <v>0.6722493291250515</v>
+        <v>0.5526186255634826</v>
       </c>
       <c r="H2">
-        <v>0.003774470062142266</v>
+        <v>0.003272384629626757</v>
       </c>
       <c r="I2">
-        <v>0.006077588339412188</v>
+        <v>0.003976999618080512</v>
       </c>
       <c r="J2">
-        <v>0.5160675528947536</v>
+        <v>0.4726678749027684</v>
       </c>
       <c r="K2">
-        <v>0.4950905298140427</v>
+        <v>0.4099572978581634</v>
       </c>
       <c r="L2">
-        <v>0.0524303496721894</v>
+        <v>0.188556147770587</v>
       </c>
       <c r="M2">
-        <v>0.8447775960024444</v>
+        <v>0.1230328189722432</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.04929617458881186</v>
       </c>
       <c r="O2">
-        <v>0.5737863442586857</v>
+        <v>0.8656981224032734</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.6040092992571928</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6423515645661269</v>
+        <v>0.634272623494212</v>
       </c>
       <c r="C3">
-        <v>0.129045027555307</v>
+        <v>0.1434836273079299</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.308473384934544</v>
+        <v>0.3338796506629151</v>
       </c>
       <c r="F3">
-        <v>1.642529203072854</v>
+        <v>1.565572815878895</v>
       </c>
       <c r="G3">
-        <v>0.649465795534752</v>
+        <v>0.5440207839545863</v>
       </c>
       <c r="H3">
-        <v>0.006021384334060187</v>
+        <v>0.005296876227081193</v>
       </c>
       <c r="I3">
-        <v>0.008357751683629289</v>
+        <v>0.005513757884829662</v>
       </c>
       <c r="J3">
-        <v>0.5105706393162137</v>
+        <v>0.4687543173388207</v>
       </c>
       <c r="K3">
-        <v>0.4910589182909959</v>
+        <v>0.4128103778905015</v>
       </c>
       <c r="L3">
-        <v>0.04986483061534619</v>
+        <v>0.1934667739652518</v>
       </c>
       <c r="M3">
-        <v>0.7359654530770428</v>
+        <v>0.1216837070736769</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.04685559413489582</v>
       </c>
       <c r="O3">
-        <v>0.5002630197071483</v>
+        <v>0.7541253435248336</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5250068948578317</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5838069793983323</v>
+        <v>0.578515322708995</v>
       </c>
       <c r="C4">
-        <v>0.1174423697247562</v>
+        <v>0.1291038210764555</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2827134995063076</v>
+        <v>0.3055195207367589</v>
       </c>
       <c r="F4">
-        <v>1.557124457896492</v>
+        <v>1.488959559128048</v>
       </c>
       <c r="G4">
-        <v>0.6357730269206883</v>
+        <v>0.5390510248607043</v>
       </c>
       <c r="H4">
-        <v>0.007722443724287875</v>
+        <v>0.006837730972033551</v>
       </c>
       <c r="I4">
-        <v>0.01003645115177321</v>
+        <v>0.006674542452053345</v>
       </c>
       <c r="J4">
-        <v>0.5074121521753625</v>
+        <v>0.4663160877833263</v>
       </c>
       <c r="K4">
-        <v>0.4886968550482926</v>
+        <v>0.414602746937053</v>
       </c>
       <c r="L4">
-        <v>0.04824334654327256</v>
+        <v>0.196489577515166</v>
       </c>
       <c r="M4">
-        <v>0.6692544861928837</v>
+        <v>0.121393928055495</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.04531856263767686</v>
       </c>
       <c r="O4">
-        <v>0.4553021477082808</v>
+        <v>0.6856891205574129</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4767297298997946</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5595795993924355</v>
+        <v>0.5554303156269214</v>
       </c>
       <c r="C5">
-        <v>0.1130891011711981</v>
+        <v>0.1236389725493297</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2725767059483388</v>
+        <v>0.2943143357528868</v>
       </c>
       <c r="F5">
-        <v>1.521237762739474</v>
+        <v>1.456755729519429</v>
       </c>
       <c r="G5">
-        <v>0.6290279151669438</v>
+        <v>0.5360875369391636</v>
       </c>
       <c r="H5">
-        <v>0.008495371825618908</v>
+        <v>0.007539315462084806</v>
       </c>
       <c r="I5">
-        <v>0.01087351115285085</v>
+        <v>0.007295805514444531</v>
       </c>
       <c r="J5">
-        <v>0.5055341056410327</v>
+        <v>0.4647647839573708</v>
       </c>
       <c r="K5">
-        <v>0.4869133076889405</v>
+        <v>0.4146693268134456</v>
       </c>
       <c r="L5">
-        <v>0.04754415309463744</v>
+        <v>0.1974015838239929</v>
       </c>
       <c r="M5">
-        <v>0.6422868818897172</v>
+        <v>0.121227270583514</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.04466680569905002</v>
       </c>
       <c r="O5">
-        <v>0.4374044424236629</v>
+        <v>0.6579953100378901</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4574649187931925</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5551578667314061</v>
+        <v>0.5512346908165568</v>
       </c>
       <c r="C6">
-        <v>0.1127730007525685</v>
+        <v>0.1231369830542945</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2713010833757181</v>
+        <v>0.2928358398887241</v>
       </c>
       <c r="F6">
-        <v>1.513830447719982</v>
+        <v>1.450126239349927</v>
       </c>
       <c r="G6">
-        <v>0.6264062033232562</v>
+        <v>0.5343686028893231</v>
       </c>
       <c r="H6">
-        <v>0.008631169326963367</v>
+        <v>0.007662444388857326</v>
       </c>
       <c r="I6">
-        <v>0.01112878653047922</v>
+        <v>0.007528124310939077</v>
       </c>
       <c r="J6">
-        <v>0.5044406043650582</v>
+        <v>0.4638377480824047</v>
       </c>
       <c r="K6">
-        <v>0.4855850787738163</v>
+        <v>0.4138615358682713</v>
       </c>
       <c r="L6">
-        <v>0.04739540679137333</v>
+        <v>0.1971620434931189</v>
       </c>
       <c r="M6">
-        <v>0.6380559501199485</v>
+        <v>0.1209839611834234</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.0445395735203622</v>
       </c>
       <c r="O6">
-        <v>0.4349056976391026</v>
+        <v>0.6536224789140164</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4547055948688978</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5823951089676314</v>
+        <v>0.5773456641232428</v>
       </c>
       <c r="C7">
-        <v>0.1184888031072973</v>
+        <v>0.1297020452359305</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2836870549797368</v>
+        <v>0.3071077576364161</v>
       </c>
       <c r="F7">
-        <v>1.552667307852673</v>
+        <v>1.482997227190197</v>
       </c>
       <c r="G7">
-        <v>0.6315700391241847</v>
+        <v>0.537489269146711</v>
       </c>
       <c r="H7">
-        <v>0.007739818416235056</v>
+        <v>0.006857319713106047</v>
       </c>
       <c r="I7">
-        <v>0.01033675925172339</v>
+        <v>0.007016048270610753</v>
       </c>
       <c r="J7">
-        <v>0.5052465106137305</v>
+        <v>0.4593582895080814</v>
       </c>
       <c r="K7">
-        <v>0.4858515589235139</v>
+        <v>0.4113392627661021</v>
       </c>
       <c r="L7">
-        <v>0.04814678988120158</v>
+        <v>0.1949788606230314</v>
       </c>
       <c r="M7">
-        <v>0.6695646477742656</v>
+        <v>0.1204644101121009</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.04523501976919997</v>
       </c>
       <c r="O7">
-        <v>0.4563493165982209</v>
+        <v>0.6854623839358567</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4781681358251006</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7032230907896917</v>
+        <v>0.6926373924211759</v>
       </c>
       <c r="C8">
-        <v>0.1430691188596427</v>
+        <v>0.1591053577176922</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3375520570756905</v>
+        <v>0.3680407968620401</v>
       </c>
       <c r="F8">
-        <v>1.728808441499837</v>
+        <v>1.636282825064924</v>
       </c>
       <c r="G8">
-        <v>0.6589035321962342</v>
+        <v>0.5513481373267126</v>
       </c>
       <c r="H8">
-        <v>0.004487300060355692</v>
+        <v>0.003922517843111151</v>
       </c>
       <c r="I8">
-        <v>0.007148038810018242</v>
+        <v>0.00487129453670665</v>
       </c>
       <c r="J8">
-        <v>0.5113134318907839</v>
+        <v>0.452388887778973</v>
       </c>
       <c r="K8">
-        <v>0.4899644459302195</v>
+        <v>0.404697343494913</v>
       </c>
       <c r="L8">
-        <v>0.05144071341537249</v>
+        <v>0.1875544868535286</v>
       </c>
       <c r="M8">
-        <v>0.8081307027084677</v>
+        <v>0.1204682100901167</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.04832782188727558</v>
       </c>
       <c r="O8">
-        <v>0.5501112105935135</v>
+        <v>0.8264527116943441</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5800005610102374</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9410000903797027</v>
+        <v>0.9180346104222679</v>
       </c>
       <c r="C9">
-        <v>0.1910789337988206</v>
+        <v>0.2188523187649878</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4424324379961462</v>
+        <v>0.4847465894586733</v>
       </c>
       <c r="F9">
-        <v>2.085858339851185</v>
+        <v>1.953691206001821</v>
       </c>
       <c r="G9">
-        <v>0.7225089955974653</v>
+        <v>0.5805489679429456</v>
       </c>
       <c r="H9">
-        <v>0.0008137960214549267</v>
+        <v>0.0006555896170206132</v>
       </c>
       <c r="I9">
-        <v>0.00281681776097642</v>
+        <v>0.001972018757405714</v>
       </c>
       <c r="J9">
-        <v>0.5288598285818722</v>
+        <v>0.4597454928743048</v>
       </c>
       <c r="K9">
-        <v>0.504046361925468</v>
+        <v>0.3997012969986393</v>
       </c>
       <c r="L9">
-        <v>0.05770822858277347</v>
+        <v>0.1764673354624655</v>
       </c>
       <c r="M9">
-        <v>1.079858570498857</v>
+        <v>0.1271234929760432</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.05427263975249019</v>
       </c>
       <c r="O9">
-        <v>0.7333991148610366</v>
+        <v>1.104422124449769</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7778133262126445</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.118552208830238</v>
+        <v>1.087156784509574</v>
       </c>
       <c r="C10">
-        <v>0.2276286083305337</v>
+        <v>0.2611624924543321</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5031480228487055</v>
+        <v>0.557106504152074</v>
       </c>
       <c r="F10">
-        <v>2.303456509457206</v>
+        <v>2.133656274301131</v>
       </c>
       <c r="G10">
-        <v>0.7555389630539366</v>
+        <v>0.6034765274655314</v>
       </c>
       <c r="H10">
-        <v>0.0002004891603388792</v>
+        <v>0.0001907075624782983</v>
       </c>
       <c r="I10">
-        <v>0.001434046596399341</v>
+        <v>0.001290522008466688</v>
       </c>
       <c r="J10">
-        <v>0.5350340415860728</v>
+        <v>0.4324368207194738</v>
       </c>
       <c r="K10">
-        <v>0.5059051274813129</v>
+        <v>0.3847351109886965</v>
       </c>
       <c r="L10">
-        <v>0.06146330052283155</v>
+        <v>0.1643082473098794</v>
       </c>
       <c r="M10">
-        <v>1.283501885107626</v>
+        <v>0.1300302692786097</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.05840381610864753</v>
       </c>
       <c r="O10">
-        <v>0.8539997280518108</v>
+        <v>1.309127411392041</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.9110608322860259</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.23146997539493</v>
+        <v>1.202177927821623</v>
       </c>
       <c r="C11">
-        <v>0.2402477870726898</v>
+        <v>0.2658613303373585</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3875691155078016</v>
+        <v>0.4399673502334878</v>
       </c>
       <c r="F11">
-        <v>2.007044674648242</v>
+        <v>1.835605467715851</v>
       </c>
       <c r="G11">
-        <v>0.6502314095462367</v>
+        <v>0.5414640040553849</v>
       </c>
       <c r="H11">
-        <v>0.01878224869216183</v>
+        <v>0.01876897436459757</v>
       </c>
       <c r="I11">
-        <v>0.001702529511674378</v>
+        <v>0.001815633320058296</v>
       </c>
       <c r="J11">
-        <v>0.476545157692442</v>
+        <v>0.3442512690227986</v>
       </c>
       <c r="K11">
-        <v>0.4380535181188812</v>
+        <v>0.3255408307338676</v>
       </c>
       <c r="L11">
-        <v>0.06529362681004791</v>
+        <v>0.1412916779277005</v>
       </c>
       <c r="M11">
-        <v>1.39824454996554</v>
+        <v>0.1099247166272939</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.06849575377617967</v>
       </c>
       <c r="O11">
-        <v>0.7737258797838891</v>
+        <v>1.416130370378653</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.8308308719147917</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.292712343734109</v>
+        <v>1.266664832669051</v>
       </c>
       <c r="C12">
-        <v>0.2411854090144345</v>
+        <v>0.2604868492512225</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2901372720125437</v>
+        <v>0.3358493663104909</v>
       </c>
       <c r="F12">
-        <v>1.735050808000523</v>
+        <v>1.576980071421048</v>
       </c>
       <c r="G12">
-        <v>0.5663974074692959</v>
+        <v>0.484834216324586</v>
       </c>
       <c r="H12">
-        <v>0.05751497920077497</v>
+        <v>0.05749171165705746</v>
       </c>
       <c r="I12">
-        <v>0.001652512737765122</v>
+        <v>0.001795111040273412</v>
       </c>
       <c r="J12">
-        <v>0.4317582265732085</v>
+        <v>0.3018102868509445</v>
       </c>
       <c r="K12">
-        <v>0.3888718386332037</v>
+        <v>0.2892293706252183</v>
       </c>
       <c r="L12">
-        <v>0.0779794797623552</v>
+        <v>0.1285131699128588</v>
       </c>
       <c r="M12">
-        <v>1.451808297415738</v>
+        <v>0.09597321594790387</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.08637928949336526</v>
       </c>
       <c r="O12">
-        <v>0.6828669736983954</v>
+        <v>1.464564511668755</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.7355782953516794</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.315333640866925</v>
+        <v>1.293363114203942</v>
       </c>
       <c r="C13">
-        <v>0.2349146566620561</v>
+        <v>0.2499241473625204</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2032077499195495</v>
+        <v>0.2379369200062627</v>
       </c>
       <c r="F13">
-        <v>1.461020591508685</v>
+        <v>1.33096668583363</v>
       </c>
       <c r="G13">
-        <v>0.4877229827557272</v>
+        <v>0.4208813101793965</v>
       </c>
       <c r="H13">
-        <v>0.1134156332902307</v>
+        <v>0.1133694868915995</v>
       </c>
       <c r="I13">
-        <v>0.001694749086382785</v>
+        <v>0.001780999279723972</v>
       </c>
       <c r="J13">
-        <v>0.3914910632078374</v>
+        <v>0.2861415449865703</v>
       </c>
       <c r="K13">
-        <v>0.3466880594751096</v>
+        <v>0.2650368441518758</v>
       </c>
       <c r="L13">
-        <v>0.09776783993832083</v>
+        <v>0.1208436505057815</v>
       </c>
       <c r="M13">
-        <v>1.461869468054061</v>
+        <v>0.08528307408208136</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.109582665282133</v>
       </c>
       <c r="O13">
-        <v>0.5813503540599783</v>
+        <v>1.472627627664679</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6252194184200519</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.313270173323815</v>
+        <v>1.294557570839032</v>
       </c>
       <c r="C14">
-        <v>0.2276472052133443</v>
+        <v>0.2404847201543134</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1497633529719096</v>
+        <v>0.1759665210900963</v>
       </c>
       <c r="F14">
-        <v>1.27151147955648</v>
+        <v>1.165765414672251</v>
       </c>
       <c r="G14">
-        <v>0.4352203884023425</v>
+        <v>0.3742710037188814</v>
       </c>
       <c r="H14">
-        <v>0.1629456365875654</v>
+        <v>0.1628722802611122</v>
       </c>
       <c r="I14">
-        <v>0.001871871056126295</v>
+        <v>0.00188724626903447</v>
       </c>
       <c r="J14">
-        <v>0.3653888826570721</v>
+        <v>0.283784997460927</v>
       </c>
       <c r="K14">
-        <v>0.3204419914489343</v>
+        <v>0.2526844534394197</v>
       </c>
       <c r="L14">
-        <v>0.1160260214088353</v>
+        <v>0.1172467573477505</v>
       </c>
       <c r="M14">
-        <v>1.449416012912138</v>
+        <v>0.07915016934200736</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1288339556921514</v>
       </c>
       <c r="O14">
-        <v>0.5071285131708052</v>
+        <v>1.460140742823626</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.543264605984092</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.30375117378378</v>
+        <v>1.286033473028539</v>
       </c>
       <c r="C15">
-        <v>0.2248222125432733</v>
+        <v>0.237445090417026</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1374216640423533</v>
+        <v>0.1610887515432609</v>
       </c>
       <c r="F15">
-        <v>1.221944912949112</v>
+        <v>1.124474286029809</v>
       </c>
       <c r="G15">
-        <v>0.4217956108727918</v>
+        <v>0.3609978059171155</v>
       </c>
       <c r="H15">
-        <v>0.1755415596026069</v>
+        <v>0.1754546435201689</v>
       </c>
       <c r="I15">
-        <v>0.002070831957649233</v>
+        <v>0.002066176947182363</v>
       </c>
       <c r="J15">
-        <v>0.3591173400246106</v>
+        <v>0.2864442149737627</v>
       </c>
       <c r="K15">
-        <v>0.3143584638608168</v>
+        <v>0.2508908612617322</v>
       </c>
       <c r="L15">
-        <v>0.1207416739811649</v>
+        <v>0.1168635885138656</v>
       </c>
       <c r="M15">
-        <v>1.43724237085047</v>
+        <v>0.07793115073818591</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1332772692438411</v>
       </c>
       <c r="O15">
-        <v>0.4867940963516304</v>
+        <v>1.448534239637695</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5202957184536174</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.220686119856765</v>
+        <v>1.204536974875907</v>
       </c>
       <c r="C16">
-        <v>0.2110285024459273</v>
+        <v>0.2261226427010286</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1321724209356034</v>
+        <v>0.1508517526160063</v>
       </c>
       <c r="F16">
-        <v>1.188383491673477</v>
+        <v>1.111849186868881</v>
       </c>
       <c r="G16">
-        <v>0.4219477671537817</v>
+        <v>0.3502961234407991</v>
       </c>
       <c r="H16">
-        <v>0.1632455244074151</v>
+        <v>0.1630842053940995</v>
       </c>
       <c r="I16">
-        <v>0.002664714721629657</v>
+        <v>0.002432230864580553</v>
       </c>
       <c r="J16">
-        <v>0.3635166994120098</v>
+        <v>0.3201937196239655</v>
       </c>
       <c r="K16">
-        <v>0.3206864836134713</v>
+        <v>0.2646883714161934</v>
       </c>
       <c r="L16">
-        <v>0.1145567860227317</v>
+        <v>0.1225420587697563</v>
       </c>
       <c r="M16">
-        <v>1.346883181109376</v>
+        <v>0.08134804899767367</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1235750123983692</v>
       </c>
       <c r="O16">
-        <v>0.4594212626946828</v>
+        <v>1.362978926143825</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.486211368485634</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.158268876648862</v>
+        <v>1.14182775073823</v>
       </c>
       <c r="C17">
-        <v>0.2043927853637939</v>
+        <v>0.2218627111890328</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1548561455264164</v>
+        <v>0.1737671693673803</v>
       </c>
       <c r="F17">
-        <v>1.260466541283307</v>
+        <v>1.186752140613734</v>
       </c>
       <c r="G17">
-        <v>0.4492178175638486</v>
+        <v>0.3674200120584246</v>
       </c>
       <c r="H17">
-        <v>0.1257042142567997</v>
+        <v>0.1254989221983749</v>
       </c>
       <c r="I17">
-        <v>0.003087758137374053</v>
+        <v>0.002710219027457939</v>
       </c>
       <c r="J17">
-        <v>0.3804654909962295</v>
+        <v>0.3475753999260789</v>
       </c>
       <c r="K17">
-        <v>0.3390176018041302</v>
+        <v>0.2817049920083896</v>
       </c>
       <c r="L17">
-        <v>0.09933789522032299</v>
+        <v>0.1292112135616943</v>
       </c>
       <c r="M17">
-        <v>1.284477005833622</v>
+        <v>0.08682567755280068</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1061459798825979</v>
       </c>
       <c r="O17">
-        <v>0.476965879913152</v>
+        <v>1.303356664364856</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.502937251688806</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.10796644383035</v>
+        <v>1.089303372088324</v>
       </c>
       <c r="C18">
-        <v>0.2020980754353019</v>
+        <v>0.2231397351248887</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2110428408948266</v>
+        <v>0.2340447611902619</v>
       </c>
       <c r="F18">
-        <v>1.444063087927432</v>
+        <v>1.360340200850743</v>
       </c>
       <c r="G18">
-        <v>0.5084956579123343</v>
+        <v>0.4108751544648257</v>
       </c>
       <c r="H18">
-        <v>0.07281428152514025</v>
+        <v>0.07260599775991494</v>
       </c>
       <c r="I18">
-        <v>0.003007579864554799</v>
+        <v>0.00252439117962755</v>
       </c>
       <c r="J18">
-        <v>0.4128880275310962</v>
+        <v>0.3789668418632957</v>
       </c>
       <c r="K18">
-        <v>0.3735635196134552</v>
+        <v>0.3074897436670199</v>
       </c>
       <c r="L18">
-        <v>0.0791576594878407</v>
+        <v>0.1389988197597276</v>
       </c>
       <c r="M18">
-        <v>1.238502348023786</v>
+        <v>0.09610607938391702</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.08389275225452053</v>
       </c>
       <c r="O18">
-        <v>0.5368604403676471</v>
+        <v>1.259970920666262</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5662465398661709</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.069442035472235</v>
+        <v>1.047388303693907</v>
       </c>
       <c r="C19">
-        <v>0.2055908618815891</v>
+        <v>0.2313089653263205</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3031364943589168</v>
+        <v>0.3334734514585733</v>
       </c>
       <c r="F19">
-        <v>1.714794804004114</v>
+        <v>1.611850026405094</v>
       </c>
       <c r="G19">
-        <v>0.5884504524828458</v>
+        <v>0.4700578355524812</v>
       </c>
       <c r="H19">
-        <v>0.02718609112982051</v>
+        <v>0.02701838294157</v>
       </c>
       <c r="I19">
-        <v>0.003059394297077134</v>
+        <v>0.00262853084076653</v>
       </c>
       <c r="J19">
-        <v>0.454719001227545</v>
+        <v>0.4125979102498079</v>
       </c>
       <c r="K19">
-        <v>0.4183915917165848</v>
+        <v>0.3384073670626115</v>
       </c>
       <c r="L19">
-        <v>0.06384546041499917</v>
+        <v>0.1505038666585943</v>
       </c>
       <c r="M19">
-        <v>1.210748804553958</v>
+        <v>0.1077587064586005</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.06597185540790562</v>
       </c>
       <c r="O19">
-        <v>0.6331578000130733</v>
+        <v>1.234772146972404</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.6690451172327769</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.068577739175026</v>
+        <v>1.039377121645032</v>
       </c>
       <c r="C20">
-        <v>0.2214536426991458</v>
+        <v>0.2550949962148508</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4898907211402488</v>
+        <v>0.537947141574918</v>
       </c>
       <c r="F20">
-        <v>2.231826223603491</v>
+        <v>2.080855295664364</v>
       </c>
       <c r="G20">
-        <v>0.7335941972250311</v>
+        <v>0.5801102058112519</v>
       </c>
       <c r="H20">
-        <v>0.0002230760995289849</v>
+        <v>0.0001829654891403187</v>
       </c>
       <c r="I20">
-        <v>0.002509438914153783</v>
+        <v>0.002353585873941633</v>
       </c>
       <c r="J20">
-        <v>0.5265662299994887</v>
+        <v>0.4508351356817428</v>
       </c>
       <c r="K20">
-        <v>0.4965331291265258</v>
+        <v>0.3855334342976384</v>
       </c>
       <c r="L20">
-        <v>0.06022449493506277</v>
+        <v>0.1663149517207572</v>
       </c>
       <c r="M20">
-        <v>1.232151135206635</v>
+        <v>0.1279312930892722</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.0572718553364826</v>
       </c>
       <c r="O20">
-        <v>0.825662721222308</v>
+        <v>1.259110234897719</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.8772132344542243</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.199684749489734</v>
+        <v>1.165409155708033</v>
       </c>
       <c r="C21">
-        <v>0.2503963108834313</v>
+        <v>0.2809627770224097</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5639435043544694</v>
+        <v>0.6376532304196161</v>
       </c>
       <c r="F21">
-        <v>2.474950546703695</v>
+        <v>2.250461501180951</v>
       </c>
       <c r="G21">
-        <v>0.783796121294543</v>
+        <v>0.6539118338200183</v>
       </c>
       <c r="H21">
-        <v>0.0001236480339059653</v>
+        <v>0.0001458224466519553</v>
       </c>
       <c r="I21">
-        <v>0.001809460026137799</v>
+        <v>0.002049102839530192</v>
       </c>
       <c r="J21">
-        <v>0.5440483920178849</v>
+        <v>0.3621111379365232</v>
       </c>
       <c r="K21">
-        <v>0.512306718086748</v>
+        <v>0.3664257375565008</v>
       </c>
       <c r="L21">
-        <v>0.06406008981239775</v>
+        <v>0.1548200021093535</v>
       </c>
       <c r="M21">
-        <v>1.385043455847324</v>
+        <v>0.127397561044134</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.06021162713208916</v>
       </c>
       <c r="O21">
-        <v>0.9430169647208189</v>
+        <v>1.40382678407417</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.016335249198939</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.288802185931928</v>
+        <v>1.251451373455581</v>
       </c>
       <c r="C22">
-        <v>0.2678315666786375</v>
+        <v>0.2953420731619758</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6019897830341705</v>
+        <v>0.6934907864607993</v>
       </c>
       <c r="F22">
-        <v>2.616404754226053</v>
+        <v>2.341303512975884</v>
       </c>
       <c r="G22">
-        <v>0.815390830568461</v>
+        <v>0.7073406672264611</v>
       </c>
       <c r="H22">
-        <v>0.0005747064789387579</v>
+        <v>0.0005829630074190018</v>
       </c>
       <c r="I22">
-        <v>0.001410279344367105</v>
+        <v>0.001724125276403754</v>
       </c>
       <c r="J22">
-        <v>0.5549082654062545</v>
+        <v>0.3103484727787418</v>
       </c>
       <c r="K22">
-        <v>0.522354235561842</v>
+        <v>0.3528879503022111</v>
       </c>
       <c r="L22">
-        <v>0.06634748748588759</v>
+        <v>0.1473142451507172</v>
       </c>
       <c r="M22">
-        <v>1.485707475432832</v>
+        <v>0.1267070770165297</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.06220402613439191</v>
       </c>
       <c r="O22">
-        <v>1.010163204338696</v>
+        <v>1.498043913209699</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.098327818959035</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.242568353092196</v>
+        <v>1.206365446451542</v>
       </c>
       <c r="C23">
-        <v>0.2571365480122125</v>
+        <v>0.2874913625173008</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5803107586253802</v>
+        <v>0.6602758484102509</v>
       </c>
       <c r="F23">
-        <v>2.545485638582633</v>
+        <v>2.302132453314186</v>
       </c>
       <c r="G23">
-        <v>0.803227217581707</v>
+        <v>0.6769742378513115</v>
       </c>
       <c r="H23">
-        <v>0.0002949715248106166</v>
+        <v>0.000316759648934184</v>
       </c>
       <c r="I23">
-        <v>0.001278170553463021</v>
+        <v>0.001502356299845964</v>
       </c>
       <c r="J23">
-        <v>0.5515217349309012</v>
+        <v>0.3468112623360113</v>
       </c>
       <c r="K23">
-        <v>0.520188634086459</v>
+        <v>0.3646103509105707</v>
       </c>
       <c r="L23">
-        <v>0.06522712049553825</v>
+        <v>0.152765561794407</v>
       </c>
       <c r="M23">
-        <v>1.431122288622674</v>
+        <v>0.1289691779037376</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.06117125647957167</v>
       </c>
       <c r="O23">
-        <v>0.9727215848598618</v>
+        <v>1.448302119251423</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.051600558669286</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.065494499036419</v>
+        <v>1.035788924907564</v>
       </c>
       <c r="C24">
-        <v>0.2194703186348903</v>
+        <v>0.2536011941040357</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5008689012727743</v>
+        <v>0.5499157029165929</v>
       </c>
       <c r="F24">
-        <v>2.271830556386462</v>
+        <v>2.117809015399757</v>
       </c>
       <c r="G24">
-        <v>0.7509474404375283</v>
+        <v>0.5931199863550205</v>
       </c>
       <c r="H24">
-        <v>8.37183562492072E-05</v>
+        <v>4.859005737234412E-05</v>
       </c>
       <c r="I24">
-        <v>0.001993023624545565</v>
+        <v>0.001743025061662351</v>
       </c>
       <c r="J24">
-        <v>0.5355717781485509</v>
+        <v>0.4585031758860652</v>
       </c>
       <c r="K24">
-        <v>0.5074298228394483</v>
+        <v>0.393421909771309</v>
       </c>
       <c r="L24">
-        <v>0.0607842197358881</v>
+        <v>0.1692338383831533</v>
       </c>
       <c r="M24">
-        <v>1.226601160819655</v>
+        <v>0.1309168083024588</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.05727928400190319</v>
       </c>
       <c r="O24">
-        <v>0.8341933781049633</v>
+        <v>1.253952238015728</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.8865990152402077</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8747526129593837</v>
+        <v>0.8552704328653817</v>
       </c>
       <c r="C25">
-        <v>0.1799070032256083</v>
+        <v>0.2050790722750833</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4159349716247362</v>
+        <v>0.453868374192183</v>
       </c>
       <c r="F25">
-        <v>1.981491890932929</v>
+        <v>1.863966764257611</v>
       </c>
       <c r="G25">
-        <v>0.6976105090444236</v>
+        <v>0.5637635192426274</v>
       </c>
       <c r="H25">
-        <v>0.001498487995936326</v>
+        <v>0.001250614605961875</v>
       </c>
       <c r="I25">
-        <v>0.004185758950447038</v>
+        <v>0.003084701984142235</v>
       </c>
       <c r="J25">
-        <v>0.5200968469823408</v>
+        <v>0.4616887937161493</v>
       </c>
       <c r="K25">
-        <v>0.4951042358438471</v>
+        <v>0.3986348911973501</v>
       </c>
       <c r="L25">
-        <v>0.05589381503060298</v>
+        <v>0.1785323468953308</v>
       </c>
       <c r="M25">
-        <v>1.007390933050345</v>
+        <v>0.1240022631448525</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.05265400893635785</v>
       </c>
       <c r="O25">
-        <v>0.6859521542908027</v>
+        <v>1.030899488447716</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.725505683118385</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
